--- a/legendre_out/CSV/analytically/p1/a4/a4Fit.xlsx
+++ b/legendre_out/CSV/analytically/p1/a4/a4Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:J229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,43 +374,75 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>a1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>a2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>a3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>a4</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>a0_err</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>a2_err</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>a4_err</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Pval</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2NDF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>3.99602</v>
       </c>
       <c r="B2" t="n">
-        <v>1.946632111376788e-06</v>
+        <v>2.16938082317685e-06</v>
       </c>
       <c r="C2" t="n">
+        <v>2.733628689521794e-06</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.296449727743736e-06</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.173380045946547e-08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.412606892824562e-07</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.983651039352839e-07</v>
+      </c>
+      <c r="H2" t="n">
+        <v>133.4988503375235</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>2.815918874691555e-06</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-1.109612445790187e-06</v>
+      <c r="J2" t="n">
+        <v>33.37471258438087</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +450,31 @@
         <v>4.00097</v>
       </c>
       <c r="B3" t="n">
-        <v>3.725200544236775e-06</v>
+        <v>3.927429774321854e-06</v>
       </c>
       <c r="C3" t="n">
+        <v>3.978484077348175e-06</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2.802374413496111e-06</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.606189891470658e-07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.216095147611771e-07</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.438324123969073e-07</v>
+      </c>
+      <c r="H3" t="n">
+        <v>93.03530293894833</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>4.191045925518802e-06</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-2.796562879940253e-06</v>
+      <c r="J3" t="n">
+        <v>23.25882573473708</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +482,31 @@
         <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>3.601280249544239e-06</v>
+        <v>4.364524003230396e-06</v>
       </c>
       <c r="C4" t="n">
+        <v>-9.959649626669614e-07</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.429780175141169e-06</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.826471518498921e-07</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.661271578947759e-07</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.643410637861937e-07</v>
+      </c>
+      <c r="H4" t="n">
+        <v>105.8557570776122</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
-        <v>-1.789352757180134e-07</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-2.594734626826494e-06</v>
+      <c r="J4" t="n">
+        <v>26.46393926940306</v>
       </c>
     </row>
     <row r="5">
@@ -458,19 +514,31 @@
         <v>4.00497</v>
       </c>
       <c r="B5" t="n">
-        <v>5.282989363922931e-06</v>
+        <v>5.735176468817984e-06</v>
       </c>
       <c r="C5" t="n">
+        <v>-1.450494377550197e-07</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-3.150016527915777e-07</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.272490909798648e-07</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.136105055063718e-07</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.323941535681536e-07</v>
+      </c>
+      <c r="H5" t="n">
+        <v>82.58240504643078</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v>-2.840593362636634e-07</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-1.882133371651752e-07</v>
+      <c r="J5" t="n">
+        <v>20.64560126160769</v>
       </c>
     </row>
     <row r="6">
@@ -478,19 +546,31 @@
         <v>4.00697</v>
       </c>
       <c r="B6" t="n">
-        <v>6.135820346970462e-06</v>
+        <v>6.497790501275796e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.894012739486278e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>4.63538946884937e-06</v>
+        <v>-2.080254096606651e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.417596494967309e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.528147411552782e-06</v>
+        <v>3.883708120488438e-07</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.107870753394354e-07</v>
+      </c>
+      <c r="H6" t="n">
+        <v>80.28567704524598</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>20.07141926131149</v>
       </c>
     </row>
     <row r="7">
@@ -498,19 +578,31 @@
         <v>4.00909</v>
       </c>
       <c r="B7" t="n">
-        <v>5.19639664511738e-06</v>
+        <v>6.134543311981063e-06</v>
       </c>
       <c r="C7" t="n">
+        <v>3.865196055623098e-06</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-6.61572750839605e-06</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.636682517882229e-07</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.10402006807501e-07</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.188302941295231e-07</v>
+      </c>
+      <c r="H7" t="n">
+        <v>111.8558580353155</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>3.89193768844399e-06</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-5.576205258448127e-06</v>
+      <c r="J7" t="n">
+        <v>27.96396450882888</v>
       </c>
     </row>
     <row r="8">
@@ -518,19 +610,31 @@
         <v>4.01003</v>
       </c>
       <c r="B8" t="n">
-        <v>6.481991598445304e-06</v>
+        <v>6.986859691796325e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9.299504540897394e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>1.146943579767495e-06</v>
+        <v>-9.21862333401841e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.795243457979075e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>-7.480953039541206e-07</v>
+        <v>5.16441873539163e-07</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.78893106535376e-07</v>
+      </c>
+      <c r="H8" t="n">
+        <v>78.87157070731635</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.33066907387547e-16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>19.71789267682909</v>
       </c>
     </row>
     <row r="9">
@@ -538,19 +642,31 @@
         <v>4.01507</v>
       </c>
       <c r="B9" t="n">
-        <v>6.06713302482789e-06</v>
+        <v>6.243785058848066e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6.228890304185505e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>6.5662241388424e-06</v>
+        <v>-4.004908018321556e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.291754969719797e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.306079195349123e-06</v>
+        <v>3.30772461687401e-07</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.806825109274264e-07</v>
+      </c>
+      <c r="H9" t="n">
+        <v>80.37646607665675</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>20.09411651916419</v>
       </c>
     </row>
     <row r="10">
@@ -558,19 +674,31 @@
         <v>4.01911</v>
       </c>
       <c r="B10" t="n">
-        <v>7.891395918220285e-06</v>
+        <v>8.639348745538617e-06</v>
       </c>
       <c r="C10" t="n">
+        <v>1.642888644352856e-06</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-4.815089435819072e-06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.85234783186591e-07</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.349619295969886e-07</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.433537100632082e-07</v>
+      </c>
+      <c r="H10" t="n">
+        <v>103.2514474185272</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>2.262429720411671e-06</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-4.809509392196627e-06</v>
+      <c r="J10" t="n">
+        <v>25.8128618546318</v>
       </c>
     </row>
     <row r="11">
@@ -578,19 +706,31 @@
         <v>4.01992</v>
       </c>
       <c r="B11" t="n">
-        <v>5.999120177655619e-06</v>
+        <v>6.561589159446302e-06</v>
       </c>
       <c r="C11" t="n">
+        <v>1.300685304658277e-06</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-2.148072031070125e-07</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.641076255818901e-07</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.42182583910001e-07</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.674694572195452e-07</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100.8850467467785</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="n">
-        <v>1.778564721816618e-06</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-6.175094455916999e-07</v>
+      <c r="J11" t="n">
+        <v>25.22126168669463</v>
       </c>
     </row>
     <row r="12">
@@ -598,19 +738,31 @@
         <v>4.02504</v>
       </c>
       <c r="B12" t="n">
-        <v>7.62421868608721e-06</v>
+        <v>7.897095273794803e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8.144434725835823e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>5.82904925565191e-07</v>
+        <v>-5.85450758165526e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2.974520783318557e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>-5.722520762398346e-06</v>
+        <v>4.840325175810228e-07</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.585267160911605e-07</v>
+      </c>
+      <c r="H12" t="n">
+        <v>72.31744689507639</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.327471962526033e-15</v>
+      </c>
+      <c r="J12" t="n">
+        <v>18.0793617237691</v>
       </c>
     </row>
     <row r="13">
@@ -618,19 +770,31 @@
         <v>4.02998</v>
       </c>
       <c r="B13" t="n">
-        <v>7.015576632375024e-06</v>
+        <v>7.561875137287457e-06</v>
       </c>
       <c r="C13" t="n">
+        <v>5.727267520014002e-06</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-8.022676838051292e-06</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.761063865256664e-07</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.201579822584473e-07</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.588726722152653e-07</v>
+      </c>
+      <c r="H13" t="n">
+        <v>108.1917730880447</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="n">
-        <v>5.931259574793479e-06</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-7.651942333509982e-06</v>
+      <c r="J13" t="n">
+        <v>27.04794327201119</v>
       </c>
     </row>
     <row r="14">
@@ -638,19 +802,31 @@
         <v>4.03514</v>
       </c>
       <c r="B14" t="n">
-        <v>6.09581754413669e-06</v>
+        <v>6.114927838990574e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.878539365238183e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>2.999224119721805e-06</v>
+        <v>9.294108876262819e-08</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.16443325525574e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>-7.127272034171897e-08</v>
+        <v>4.078741618312191e-07</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.180330174660418e-07</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.459000764523791</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2433569208143982</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.364750191130948</v>
       </c>
     </row>
     <row r="15">
@@ -658,19 +834,31 @@
         <v>4.26996</v>
       </c>
       <c r="B15" t="n">
-        <v>9.426058784546522e-06</v>
+        <v>9.561579754006008e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1.204824717389982e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>1.279593870277019e-06</v>
+        <v>7.073465583734718e-08</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2.766444637966776e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>7.351199133393155e-08</v>
+        <v>5.373971018430533e-07</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.4621785502012e-07</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10.56740277047589</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.03188109156541996</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.641850692618972</v>
       </c>
     </row>
     <row r="16">
@@ -678,19 +866,31 @@
         <v>4.29005</v>
       </c>
       <c r="B16" t="n">
-        <v>7.942832187202557e-06</v>
+        <v>8.496428884888671e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.741157132039427e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>1.8250966602465e-06</v>
+        <v>-1.163765168625649e-06</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.6511643595745e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>-9.03012117743584e-07</v>
+        <v>5.074556057073994e-07</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.717993024779554e-07</v>
+      </c>
+      <c r="H16" t="n">
+        <v>72.44084594205306</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.883382752675971e-15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>18.11021148551326</v>
       </c>
     </row>
     <row r="17">
@@ -698,19 +898,31 @@
         <v>4.291119999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>7.226921895234246e-06</v>
+        <v>7.28564371083721e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-4.456280014242981e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.09704141758242e-07</v>
+        <v>1.092948580125497e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.611973498091948e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>1.30171100759754e-06</v>
+        <v>4.85057968833604e-07</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.729643346873378e-07</v>
+      </c>
+      <c r="H17" t="n">
+        <v>18.31760036407703</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.001069611437289564</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.579400091019258</v>
       </c>
     </row>
     <row r="18">
@@ -718,19 +930,31 @@
         <v>4.29319</v>
       </c>
       <c r="B18" t="n">
-        <v>7.829079641451109e-06</v>
+        <v>8.061783740511197e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2.67898064849476e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>6.968827882289532e-07</v>
+        <v>4.000190710616392e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2.771054273787746e-07</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.400326351125159e-07</v>
+        <v>5.575731603085855e-07</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6.233029768813608e-07</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15.23136967240346</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.004244630630190649</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.807842418100865</v>
       </c>
     </row>
     <row r="19">
@@ -738,19 +962,31 @@
         <v>4.2942</v>
       </c>
       <c r="B19" t="n">
-        <v>6.701082928528471e-06</v>
+        <v>6.728868020851214e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>5.452726908913041e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>5.953624042270074e-06</v>
+        <v>-3.282813430883999e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2.628869952814345e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.223240700327972e-06</v>
+        <v>4.046526519496254e-07</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.896206076777688e-07</v>
+      </c>
+      <c r="H19" t="n">
+        <v>58.54167711518667</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.872968777964616e-12</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14.63541927879667</v>
       </c>
     </row>
     <row r="20">
@@ -758,19 +994,31 @@
         <v>4.29515</v>
       </c>
       <c r="B20" t="n">
-        <v>8.148228453942586e-06</v>
+        <v>8.378171020220063e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.215929931208805e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>4.987726711270474e-07</v>
+        <v>-1.603277571635515e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.11950547846472e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.050764717892145e-06</v>
+        <v>5.703192273296541e-07</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.88254436673021e-07</v>
+      </c>
+      <c r="H20" t="n">
+        <v>45.29393887942705</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.453994423807671e-09</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.32348471985676</v>
       </c>
     </row>
     <row r="21">
@@ -778,19 +1026,31 @@
         <v>4.29615</v>
       </c>
       <c r="B21" t="n">
-        <v>7.212273989822053e-06</v>
+        <v>7.577185392403076e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2.455850090935177e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>2.380715397250907e-06</v>
+        <v>-1.276074542916118e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>3.117045852895377e-07</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.141230370093194e-06</v>
+        <v>5.441011984299678e-07</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6.4386508170012e-07</v>
+      </c>
+      <c r="H21" t="n">
+        <v>43.98229990710004</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.470317948092941e-09</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10.99557497677501</v>
       </c>
     </row>
     <row r="22">
@@ -798,19 +1058,31 @@
         <v>4.297219999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>7.945064718235205e-06</v>
+        <v>8.229690317447685e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5.331751059512875e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>6.253044292098428e-06</v>
+        <v>-2.804749178209865e-06</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3.568402518651592e-07</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.452361551349015e-06</v>
+        <v>5.793879259753218e-07</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.637894950588544e-07</v>
+      </c>
+      <c r="H22" t="n">
+        <v>50.41388071475815</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.959247291656197e-10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>12.60347017868954</v>
       </c>
     </row>
     <row r="23">
@@ -818,19 +1090,31 @@
         <v>4.298080000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>1.431564238605073e-05</v>
+        <v>1.497718496576119e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2.838460008066919e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>2.557835078752726e-06</v>
+        <v>-6.002001462888317e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>7.617235510801342e-07</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.831509481353209e-06</v>
+        <v>1.42720237377496e-06</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.744664388581964e-06</v>
+      </c>
+      <c r="H23" t="n">
+        <v>13.1169510750605</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.01071826464957293</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.279237768765126</v>
       </c>
     </row>
     <row r="24">
@@ -838,19 +1122,31 @@
         <v>4.299090000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>1.417751275114466e-05</v>
+        <v>1.56434739853421e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1.697514021275147e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>1.095088120383593e-06</v>
+        <v>5.36522247774063e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>8.934858697598652e-07</v>
       </c>
       <c r="F24" t="n">
-        <v>8.061598019120522e-06</v>
+        <v>2.001357626337581e-06</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.232734666682765e-06</v>
+      </c>
+      <c r="H24" t="n">
+        <v>22.09674939589878</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0001917256858715577</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.524187348974695</v>
       </c>
     </row>
     <row r="25">
@@ -858,19 +1154,31 @@
         <v>4.30105</v>
       </c>
       <c r="B25" t="n">
-        <v>3.002531184307962e-05</v>
+        <v>3.019622294479482e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>7.514141179991932e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>8.44134783566224e-06</v>
+        <v>-9.202910571668987e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.541308521435295e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>-9.370339817868699e-06</v>
+        <v>2.698692439226233e-06</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.276229330566172e-06</v>
+      </c>
+      <c r="H25" t="n">
+        <v>13.22110084064553</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.01024449365117586</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.305275210161382</v>
       </c>
     </row>
     <row r="26">
@@ -878,19 +1186,31 @@
         <v>4.3031</v>
       </c>
       <c r="B26" t="n">
-        <v>2.633705460086802e-05</v>
+        <v>2.712214700104265e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>3.495366175740072e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>1.834677701531047e-06</v>
+        <v>-9.389472004816032e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.373060969526393e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>-7.009707126883547e-06</v>
+        <v>2.38218945117188e-06</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.999497896084748e-06</v>
+      </c>
+      <c r="H26" t="n">
+        <v>27.17429592115101</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.832934746193171e-05</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6.793573980287753</v>
       </c>
     </row>
     <row r="27">
@@ -898,19 +1218,31 @@
         <v>4.30523</v>
       </c>
       <c r="B27" t="n">
-        <v>2.856674915257733e-05</v>
+        <v>2.925649609682504e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-6.85542784403711e-07</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.513931947656389e-06</v>
+        <v>-8.508112682295719e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1.461004449868354e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>-6.764463213228289e-06</v>
+        <v>2.756183395169812e-06</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.086783249694362e-06</v>
+      </c>
+      <c r="H27" t="n">
+        <v>11.96871349997278</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.01758544246778215</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.992178374993195</v>
       </c>
     </row>
     <row r="28">
@@ -918,19 +1250,31 @@
         <v>4.30725</v>
       </c>
       <c r="B28" t="n">
-        <v>2.839420138590732e-05</v>
+        <v>2.825026345080506e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3.296654240538308e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>3.022728931815673e-06</v>
+        <v>-4.155689610949647e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.469846043539078e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.066920125757141e-06</v>
+        <v>2.691341476891783e-06</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.084757158732014e-06</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6.67880631329575</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1538670533270294</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.669701578323938</v>
       </c>
     </row>
     <row r="29">
@@ -938,19 +1282,31 @@
         <v>4.3093</v>
       </c>
       <c r="B29" t="n">
-        <v>2.893252599286586e-05</v>
+        <v>2.916243202569402e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3.607589215762411e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>3.192368155887119e-06</v>
+        <v>-1.764670453589726e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.496259602841002e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.824907558068289e-05</v>
+        <v>2.75351886028746e-06</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.131798032399183e-06</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.067540869095026</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.08913518386019403</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.016885217273757</v>
       </c>
     </row>
     <row r="30">
@@ -958,19 +1314,31 @@
         <v>4.30996</v>
       </c>
       <c r="B30" t="n">
-        <v>2.949463522144902e-05</v>
+        <v>2.951438349229854e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>4.017256017883382e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>2.486197699666194e-06</v>
+        <v>-1.181322519173031e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1.45402256644446e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.322430168231989e-06</v>
+        <v>2.623778609729562e-06</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.263012945659614e-06</v>
+      </c>
+      <c r="H30" t="n">
+        <v>35.25155585971191</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.124167793939648e-07</v>
+      </c>
+      <c r="J30" t="n">
+        <v>8.812888964927977</v>
       </c>
     </row>
     <row r="31">
@@ -978,19 +1346,31 @@
         <v>4.31117</v>
       </c>
       <c r="B31" t="n">
-        <v>2.297557167644658e-05</v>
+        <v>2.433759898339824e-05</v>
       </c>
       <c r="C31" t="n">
+        <v>1.220101536240663e-06</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-8.337734489036294e-06</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.327727631923651e-06</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.210862185856882e-06</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.859798101845889e-06</v>
+      </c>
+      <c r="H31" t="n">
+        <v>85.45913451060569</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="D31" t="n">
-        <v>-3.168576685190764e-07</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-1.092396457620751e-05</v>
+      <c r="J31" t="n">
+        <v>21.36478362765142</v>
       </c>
     </row>
     <row r="32">
@@ -998,19 +1378,31 @@
         <v>4.31311</v>
       </c>
       <c r="B32" t="n">
-        <v>2.149010861624674e-05</v>
+        <v>2.423461700029145e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>6.51516391286505e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>7.797389301917112e-06</v>
+        <v>-1.136977089954649e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.334331038029349e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>-9.312181372731729e-06</v>
+        <v>2.078346741846836e-06</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.685253860722134e-06</v>
+      </c>
+      <c r="H32" t="n">
+        <v>48.23976507081999</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8.411737972835454e-10</v>
+      </c>
+      <c r="J32" t="n">
+        <v>12.059941267705</v>
       </c>
     </row>
     <row r="33">
@@ -1018,19 +1410,31 @@
         <v>4.31513</v>
       </c>
       <c r="B33" t="n">
-        <v>2.627141203160173e-05</v>
+        <v>2.695744526151594e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1.150339277846211e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>1.360017076258282e-05</v>
+        <v>-6.324294404290831e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1.390088204898426e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>-7.948072162027707e-06</v>
+        <v>2.584090284879082e-06</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.2250365215708e-06</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6.859849448718956</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.1434825100076055</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.714962362179739</v>
       </c>
     </row>
     <row r="34">
@@ -1038,19 +1442,31 @@
         <v>4.3172</v>
       </c>
       <c r="B34" t="n">
-        <v>2.637008983763477e-05</v>
+        <v>2.62822367498995e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2.095503351735617e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>1.499207627371656e-06</v>
+        <v>7.152169265853804e-07</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.31710337129907e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>1.734583102164983e-06</v>
+        <v>2.455424283240726e-06</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.882466706088036e-06</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10.05490000653224</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.03951298341633835</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.51372500163306</v>
       </c>
     </row>
     <row r="35">
@@ -1058,19 +1474,31 @@
         <v>4.31917</v>
       </c>
       <c r="B35" t="n">
-        <v>2.893888070750781e-05</v>
+        <v>2.896363906154722e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>5.632530172585808e-07</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.526448145903011e-07</v>
+        <v>-3.531456416156291e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.468495090005177e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.515992895724957e-06</v>
+        <v>2.788643301078172e-06</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.041319423091351e-06</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8.900060314420127</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.06364662274813826</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.225015078605032</v>
       </c>
     </row>
     <row r="36">
@@ -1078,19 +1506,31 @@
         <v>4.32116</v>
       </c>
       <c r="B36" t="n">
-        <v>2.620519891128481e-05</v>
+        <v>2.633458870824338e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1.082770027258237e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>1.078584940593562e-05</v>
+        <v>-5.063793629684284e-06</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1.288158333948358e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.475024102630109e-06</v>
+        <v>2.289318606289586e-06</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.859022559167714e-06</v>
+      </c>
+      <c r="H36" t="n">
+        <v>11.92192476380006</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.01794139540056283</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.980481190950015</v>
       </c>
     </row>
     <row r="37">
@@ -1098,19 +1538,31 @@
         <v>4.32298</v>
       </c>
       <c r="B37" t="n">
-        <v>2.462729626458382e-05</v>
+        <v>2.518435265833561e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>5.520665136118927e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>6.346801633307679e-06</v>
+        <v>-3.763946414753889e-06</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.190724994785745e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>-5.290603349814597e-06</v>
+        <v>2.301513506486089e-06</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.660384618559275e-06</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8.384764107123681</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.07845818338800636</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.09619102678092</v>
       </c>
     </row>
     <row r="38">
@@ -1118,19 +1570,31 @@
         <v>4.32521</v>
       </c>
       <c r="B38" t="n">
-        <v>1.93407477121713e-05</v>
+        <v>1.98637033205473e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.426397028874825e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>5.652202490408301e-06</v>
+        <v>-1.7648734182948e-06</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>9.34916778645946e-07</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.51775282852293e-06</v>
+        <v>1.747636739883935e-06</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.107306163570255e-06</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8.672800171805678</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.06981902083878933</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.168200042951419</v>
       </c>
     </row>
     <row r="39">
@@ -1138,19 +1602,31 @@
         <v>4.32711</v>
       </c>
       <c r="B39" t="n">
-        <v>1.950019276066589e-05</v>
+        <v>1.949917286861132e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1.063244429748948e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>8.070314515739887e-07</v>
+        <v>3.054019433794263e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>8.395327332728082e-07</v>
       </c>
       <c r="F39" t="n">
-        <v>3.291912264332606e-06</v>
+        <v>1.608074775716757e-06</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.913362649184933e-06</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9.46749274244689</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.05041950185527155</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.366873185611722</v>
       </c>
     </row>
     <row r="40">
@@ -1158,19 +1634,31 @@
         <v>4.32908</v>
       </c>
       <c r="B40" t="n">
-        <v>1.566018798795607e-05</v>
+        <v>1.568393851868086e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.089947744917897e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>1.245641982934162e-05</v>
+        <v>-8.207778591241238e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>6.559205155549987e-07</v>
       </c>
       <c r="F40" t="n">
-        <v>-9.733662920835493e-06</v>
+        <v>9.939350572736667e-07</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.420441326640676e-06</v>
+      </c>
+      <c r="H40" t="n">
+        <v>36.80016995744013</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.980378758759116e-07</v>
+      </c>
+      <c r="J40" t="n">
+        <v>9.200042489360031</v>
       </c>
     </row>
     <row r="41">
@@ -1178,19 +1666,31 @@
         <v>4.33012</v>
       </c>
       <c r="B41" t="n">
-        <v>1.655192926630432e-05</v>
+        <v>1.690571948594543e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.733055957006563e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>4.256605819684314e-06</v>
+        <v>-2.35615648559586e-06</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>7.945849989354883e-07</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.634788132317909e-06</v>
+        <v>1.460880490157223e-06</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.726512016371171e-06</v>
+      </c>
+      <c r="H41" t="n">
+        <v>13.09042048815848</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.01084233080799879</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.27260512203962</v>
       </c>
     </row>
     <row r="42">
@@ -1198,19 +1698,31 @@
         <v>4.33119</v>
       </c>
       <c r="B42" t="n">
-        <v>2.538921099762807e-05</v>
+        <v>2.533503798965327e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1.230143076266201e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>8.134347175296553e-07</v>
+        <v>1.705455233773554e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>8.448316466746771e-07</v>
       </c>
       <c r="F42" t="n">
-        <v>2.110966475436738e-06</v>
+        <v>1.580419770117981e-06</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.867083537796621e-06</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5.730449501676457</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.2202031124357279</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.432612375419114</v>
       </c>
     </row>
     <row r="43">
@@ -1218,19 +1730,31 @@
         <v>4.33324</v>
       </c>
       <c r="B43" t="n">
-        <v>2.548000911003593e-05</v>
+        <v>2.556317677259932e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>7.748782548129898e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>7.86265149444552e-06</v>
+        <v>-3.853816259657947e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>7.595638538659731e-07</v>
       </c>
       <c r="F43" t="n">
-        <v>-4.495049169431173e-06</v>
+        <v>1.342158039402968e-06</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.674773498196517e-06</v>
+      </c>
+      <c r="H43" t="n">
+        <v>18.2016769232502</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.001126972973402918</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.550419230812551</v>
       </c>
     </row>
     <row r="44">
@@ -1238,19 +1762,31 @@
         <v>4.33515</v>
       </c>
       <c r="B44" t="n">
-        <v>2.485388422748279e-05</v>
+        <v>2.481117919374958e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2.531128816511159e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>2.410586573083563e-06</v>
+        <v>-6.095434862258997e-07</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>7.035671766816475e-07</v>
       </c>
       <c r="F44" t="n">
-        <v>-5.291129422906016e-07</v>
+        <v>1.303013877051194e-06</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.572103361036681e-06</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.960483695655604</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.4113802154882132</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9901209239139011</v>
       </c>
     </row>
     <row r="45">
@@ -1258,19 +1794,31 @@
         <v>4.34004</v>
       </c>
       <c r="B45" t="n">
-        <v>2.231585569111778e-05</v>
+        <v>2.238432508540996e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2.220572934864891e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>2.050895989633048e-06</v>
+        <v>-1.156787094226046e-06</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>6.213727314554294e-07</v>
       </c>
       <c r="F45" t="n">
-        <v>-8.426806246092887e-07</v>
+        <v>1.151363078449907e-06</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.387637074254622e-06</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.919220797391719</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.4170484982930142</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.9798051993479299</v>
       </c>
     </row>
     <row r="46">
@@ -1278,19 +1826,31 @@
         <v>4.34488</v>
       </c>
       <c r="B46" t="n">
-        <v>2.29123723255338e-05</v>
+        <v>2.298230328225498e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.375355320306019e-06</v>
       </c>
       <c r="D46" t="n">
-        <v>3.580164499311833e-06</v>
+        <v>3.064504773466755e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>6.27787482285383e-07</v>
       </c>
       <c r="F46" t="n">
-        <v>1.694697196139825e-07</v>
+        <v>1.184899543383833e-06</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.445430973829369e-06</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.963802908120343</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.7424165985180282</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.4909507270300857</v>
       </c>
     </row>
     <row r="47">
@@ -1298,19 +1858,31 @@
         <v>4.34998</v>
       </c>
       <c r="B47" t="n">
-        <v>2.220322093539361e-05</v>
+        <v>2.223068446639253e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>5.514217767268345e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>5.700198054040358e-07</v>
+        <v>-4.399124020895099e-07</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>5.949437584368364e-07</v>
       </c>
       <c r="F47" t="n">
-        <v>-5.395908985335139e-07</v>
+        <v>1.106776287473347e-06</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.298034082059398e-06</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.271133585952754</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.8662537613940617</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.3177833964881885</v>
       </c>
     </row>
     <row r="48">
@@ -1318,19 +1890,31 @@
         <v>4.37005</v>
       </c>
       <c r="B48" t="n">
-        <v>1.547736654091862e-05</v>
+        <v>1.544380657622781e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2.661340131303604e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>2.626298560696312e-06</v>
+        <v>-7.197504833451307e-07</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>4.451018566206278e-07</v>
       </c>
       <c r="F48" t="n">
-        <v>-7.046979306017423e-07</v>
+        <v>8.140865586949216e-07</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.000909313645853e-06</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.520666073478986</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.6409390752934265</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.6301665183697466</v>
       </c>
     </row>
     <row r="49">
@@ -1338,19 +1922,31 @@
         <v>4.39015</v>
       </c>
       <c r="B49" t="n">
-        <v>2.033188541733173e-05</v>
+        <v>2.03321307132327e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>9.554742214629831e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>8.026480164760602e-07</v>
+        <v>8.751955080790162e-07</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>5.636614685963466e-07</v>
       </c>
       <c r="F49" t="n">
-        <v>1.042083224284503e-06</v>
+        <v>1.071949154742307e-06</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.239893335004147e-06</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.43135389217176</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.6569686554204077</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.60783847304294</v>
       </c>
     </row>
     <row r="50">
@@ -1358,19 +1954,31 @@
         <v>4.41003</v>
       </c>
       <c r="B50" t="n">
-        <v>2.998919027135467e-05</v>
+        <v>3.028117173227794e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1.29991686047012e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>1.81458363263717e-06</v>
+        <v>2.5483612704219e-06</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>8.086835990785193e-07</v>
       </c>
       <c r="F50" t="n">
-        <v>2.018658818873273e-06</v>
+        <v>1.524865843659285e-06</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.857162737638462e-06</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9.375517063558918</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.05236890434162933</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.34387926588973</v>
       </c>
     </row>
     <row r="51">
@@ -1378,19 +1986,31 @@
         <v>4.42024</v>
       </c>
       <c r="B51" t="n">
-        <v>4.437947726803954e-05</v>
+        <v>4.446611586523098e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>4.663617357646259e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>4.601548104150824e-06</v>
+        <v>-3.221736741250433e-07</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1.181510941854915e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.727365079265149e-07</v>
+        <v>2.117361152893045e-06</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.611578025528195e-06</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10.74044848366593</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.02964121255230534</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.685112120916481</v>
       </c>
     </row>
     <row r="52">
@@ -1398,19 +2018,31 @@
         <v>4.43018</v>
       </c>
       <c r="B52" t="n">
-        <v>6.122324000044898e-05</v>
+        <v>6.127986874284483e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>5.221550051185626e-07</v>
       </c>
       <c r="D52" t="n">
-        <v>5.727132973486565e-07</v>
+        <v>-3.633588229508679e-07</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1.538347651530562e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>-4.073222405690107e-07</v>
+        <v>2.841833906104994e-06</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.380598753505734e-06</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.934544356970447</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.7477965901708213</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.4836360892426119</v>
       </c>
     </row>
     <row r="53">
@@ -1418,19 +2050,31 @@
         <v>4.44004</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001261133594744935</v>
+        <v>0.0001263625101017837</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>9.3050525049401e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>9.38238090816358e-06</v>
+        <v>4.518739087451084e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>3.253957639686898e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>4.403434994410079e-06</v>
+        <v>6.028517777789737e-06</v>
+      </c>
+      <c r="G53" t="n">
+        <v>7.329540937229871e-06</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.003663784383376</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.5572124620847326</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.7509159460958439</v>
       </c>
     </row>
     <row r="54">
@@ -1438,19 +2082,31 @@
         <v>4.44994</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0002175803992655165</v>
+        <v>0.0002182256120124949</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>7.539503509813931e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>8.70215877760056e-06</v>
+        <v>-5.005789050058673e-06</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>5.401486340934383e-06</v>
       </c>
       <c r="F54" t="n">
-        <v>-6.108362554697789e-06</v>
+        <v>1.005524398699776e-05</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.187716730694552e-05</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.482354459144349</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.8297624894798106</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.3705886147860873</v>
       </c>
     </row>
     <row r="55">
@@ -1458,19 +2114,31 @@
         <v>4.45499</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0005930005072766747</v>
+        <v>0.0005926662647069509</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>6.623110186576814e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>6.563863548562045e-05</v>
+        <v>-1.108243518005328e-05</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1.467411438197301e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.324721937619597e-05</v>
+        <v>2.659148378996391e-05</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.297811203392386e-05</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.507482810576095</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.4767414792422691</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.8768707026440237</v>
       </c>
     </row>
     <row r="56">
@@ -1478,19 +2146,31 @@
         <v>4.46012</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0009578961583832155</v>
+        <v>0.0009582852285062902</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>6.614288676230426e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>6.659036326724847e-05</v>
+        <v>1.084363812386187e-06</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>2.306705929866229e-05</v>
       </c>
       <c r="F56" t="n">
-        <v>3.216659621124773e-07</v>
+        <v>4.199793193352391e-05</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.136181625454124e-05</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.847025773446128</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.7638684092032855</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.4617564433615321</v>
       </c>
     </row>
     <row r="57">
@@ -1498,19 +2178,31 @@
         <v>4.469959999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001062802071659494</v>
+        <v>0.001063184592376803</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>4.620812176677565e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>4.466209563586099e-05</v>
+        <v>3.451367227433159e-06</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>2.504319733978428e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>1.372684810856456e-06</v>
+        <v>4.552602631585614e-05</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5.545799280630699e-05</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.937182558242819</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.5683921898038582</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.7342956395607049</v>
       </c>
     </row>
     <row r="58">
@@ -1518,19 +2210,31 @@
         <v>4.477980000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>0.00085738814000085</v>
+        <v>0.0008569941745159897</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>7.63834688608872e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>7.506657475338505e-05</v>
+        <v>6.603384922012874e-06</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>2.032576548954502e-05</v>
       </c>
       <c r="F58" t="n">
-        <v>4.850941689161254e-06</v>
+        <v>3.72892975152807e-05</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4.557217528828091e-05</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.961120542604682</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.742909904041499</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.4902801356511704</v>
       </c>
     </row>
     <row r="59">
@@ -1538,19 +2242,31 @@
         <v>4.48613</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0004414049113510341</v>
+        <v>0.0004415282268501069</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>3.590119993983074e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>3.578551558044493e-05</v>
+        <v>-1.341941274824777e-05</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1.052355483308679e-05</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.372579918448906e-05</v>
+        <v>1.89365248058989e-05</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.327415126281708e-05</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.646370901204703</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.6186310861137357</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.6615927253011759</v>
       </c>
     </row>
     <row r="60">
@@ -1558,19 +2274,31 @@
         <v>4.48819</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0003404822434745066</v>
+        <v>0.0003404732209370016</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>3.067234998590639e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>3.096509091485974e-05</v>
+        <v>-1.164314448417211e-05</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>8.137744789422501e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.20697384393472e-05</v>
+        <v>1.459809786870374e-05</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.793111395377242e-05</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.570552636239884</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.6320483566233878</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.642638159059971</v>
       </c>
     </row>
     <row r="61">
@@ -1578,19 +2306,31 @@
         <v>4.490069999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0004310575630340243</v>
+        <v>0.0004314057254518509</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>2.781639317432413e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>2.636007966250819e-05</v>
+        <v>6.500200061735728e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1.018191526763829e-05</v>
       </c>
       <c r="F61" t="n">
-        <v>3.79746741197568e-06</v>
+        <v>1.83966431477892e-05</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.266445303360317e-05</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6.544680231804506</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.1619968477507425</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.636170057951126</v>
       </c>
     </row>
     <row r="62">
@@ -1598,19 +2338,31 @@
         <v>4.49222</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0001909823115248654</v>
+        <v>0.0001908849694768657</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1.685675498452943e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>1.676292566396691e-05</v>
+        <v>2.575667455225795e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>4.538964403118898e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>2.162331126509181e-06</v>
+        <v>8.334947074010196e-06</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.020579938901169e-05</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.293529965990562</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.8624723091084914</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.3233824914976406</v>
       </c>
     </row>
     <row r="63">
@@ -1618,19 +2370,31 @@
         <v>4.49499</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0001369012669725027</v>
+        <v>0.000136927733355247</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>7.563007932011027e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>7.513563430372848e-06</v>
+        <v>4.453544038282651e-07</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>3.199745047055465e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>4.15304145776501e-07</v>
+        <v>5.88492234119688e-06</v>
+      </c>
+      <c r="G63" t="n">
+        <v>7.111534351387903e-06</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.8510224380839937</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.9314798513964999</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.2127556095209984</v>
       </c>
     </row>
     <row r="64">
@@ -1638,19 +2402,31 @@
         <v>4.499969999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>7.899595679423413e-05</v>
+        <v>7.904121074309059e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>4.487759968765177e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>4.391149067018265e-06</v>
+        <v>6.254493358580468e-07</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1.897540378628586e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>3.777490970310091e-07</v>
+        <v>3.493177975889106e-06</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4.267911380105603e-06</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.912394161714263</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.5725914438024045</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.7280985404285658</v>
       </c>
     </row>
     <row r="65">
@@ -1658,19 +2434,31 @@
         <v>4.51021</v>
       </c>
       <c r="B65" t="n">
-        <v>4.228224610871614e-05</v>
+        <v>4.232526788090387e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>2.761513527096439e-07</v>
       </c>
       <c r="D65" t="n">
-        <v>2.465946224392605e-07</v>
+        <v>1.785650830842206e-06</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1.053645761973135e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>1.77723874639252e-06</v>
+        <v>1.944281295258244e-06</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.319462062923405e-06</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3.406005331700436</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.4923135777807105</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.851501332925109</v>
       </c>
     </row>
     <row r="66">
@@ -1678,19 +2466,31 @@
         <v>4.51218</v>
       </c>
       <c r="B66" t="n">
-        <v>3.236910338708662e-05</v>
+        <v>3.239164734309155e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>2.644394779996312e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>2.12344524197254e-06</v>
+        <v>8.309404379582856e-07</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>9.995939387196987e-07</v>
       </c>
       <c r="F66" t="n">
-        <v>1.299044087986035e-06</v>
+        <v>1.86968189875216e-06</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.199119583646795e-06</v>
+      </c>
+      <c r="H66" t="n">
+        <v>10.00146980993081</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.04040293051777688</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.500367452482701</v>
       </c>
     </row>
     <row r="67">
@@ -1698,19 +2498,31 @@
         <v>4.51508</v>
       </c>
       <c r="B67" t="n">
-        <v>3.175595359260273e-05</v>
+        <v>3.166647629919657e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>3.067793188861959e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>2.782547651637353e-06</v>
+        <v>1.641594303140439e-07</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1.336347292542397e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>6.690501432636469e-07</v>
+        <v>2.530276994461061e-06</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.974565157248305e-06</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2.259823347254613</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.6880930779052297</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5649558368136534</v>
       </c>
     </row>
     <row r="68">
@@ -1718,19 +2530,31 @@
         <v>4.52007</v>
       </c>
       <c r="B68" t="n">
-        <v>3.852784713481541e-05</v>
+        <v>3.845552099368604e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1.888253666718415e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>1.080519864894548e-06</v>
+        <v>-1.191310013946517e-06</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1.712901267701423e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.447773641272181e-08</v>
+        <v>3.28416416612466e-06</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3.755647510514536e-06</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5.296308005855636</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.2582227444654781</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.324077001463909</v>
       </c>
     </row>
     <row r="69">
@@ -1738,19 +2562,31 @@
         <v>4.52524</v>
       </c>
       <c r="B69" t="n">
-        <v>5.276624362192782e-05</v>
+        <v>5.328559449201074e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>7.497730557594691e-06</v>
       </c>
       <c r="D69" t="n">
-        <v>7.92559491574345e-06</v>
+        <v>1.201360400179837e-06</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>2.6440978297885e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>1.977995672527377e-06</v>
+        <v>4.940921233992087e-06</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.948832887177476e-06</v>
+      </c>
+      <c r="H69" t="n">
+        <v>7.035729364762253</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.1340120958506803</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.758932341190563</v>
       </c>
     </row>
     <row r="70">
@@ -1758,19 +2594,31 @@
         <v>4.529409999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>4.992839971618198e-05</v>
+        <v>4.964858908616196e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1.233651498468245e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>1.235506387765059e-05</v>
+        <v>-7.058252395270929e-06</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>2.244877864411099e-06</v>
       </c>
       <c r="F70" t="n">
-        <v>-6.968193101641863e-06</v>
+        <v>4.026558813390949e-06</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4.948006797674173e-06</v>
+      </c>
+      <c r="H70" t="n">
+        <v>13.86115887326582</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.007751620701364481</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.465289718316455</v>
       </c>
     </row>
     <row r="71">
@@ -1778,19 +2626,31 @@
         <v>4.53506</v>
       </c>
       <c r="B71" t="n">
-        <v>9.871145798137992e-05</v>
+        <v>9.940627990980077e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1.602929101257071e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>1.878436413797103e-05</v>
+        <v>-2.533607133277773e-07</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>4.373561708754763e-06</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.849535146811589e-06</v>
+        <v>8.487235012645583e-06</v>
+      </c>
+      <c r="G71" t="n">
+        <v>9.964013009794398e-06</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.523979329673049</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.8223855105539628</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.3809948324182624</v>
       </c>
     </row>
     <row r="72">
@@ -1798,19 +2658,31 @@
         <v>4.54024</v>
       </c>
       <c r="B72" t="n">
-        <v>0.000150959436884246</v>
+        <v>0.0001507150311785344</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>4.097448914331243e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>4.237528786635722e-05</v>
+        <v>-1.901017001361877e-05</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>6.462703564555959e-06</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.913527449605836e-05</v>
+        <v>1.159963960748111e-05</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.4025660164913e-05</v>
+      </c>
+      <c r="H72" t="n">
+        <v>13.72829025482064</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.008214689786201768</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.432072563705159</v>
       </c>
     </row>
     <row r="73">
@@ -1818,19 +2690,31 @@
         <v>4.5498</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0003789902275323646</v>
+        <v>0.0003787155358604724</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>3.100426914892326e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>2.986480181506848e-05</v>
+        <v>-1.418549545332377e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>9.776923078033988e-06</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.441616040702674e-05</v>
+        <v>1.78226385823883e-05</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.171331027398635e-05</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3.741468171831569</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.4421233737218189</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9353670429578923</v>
       </c>
     </row>
     <row r="74">
@@ -1838,19 +2722,31 @@
         <v>4.56018</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0009639982198369353</v>
+        <v>0.0009631529328086028</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>7.161861603506158e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>6.786088975327293e-05</v>
+        <v>4.969345430648345e-06</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>2.428970772223932e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>1.543386860786011e-06</v>
+        <v>4.455375197064938e-05</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.430710200484899e-05</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4.724639296451419</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.3167354041254684</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.181159824112855</v>
       </c>
     </row>
     <row r="75">
@@ -1858,19 +2754,31 @@
         <v>4.570130000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0009541230475984057</v>
+        <v>0.0009543939364211854</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>3.815290058340837e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>3.458933405124491e-05</v>
+        <v>1.047642878151825e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>2.423415180959908e-05</v>
       </c>
       <c r="F75" t="n">
-        <v>1.451074239373191e-05</v>
+        <v>4.450035474626393e-05</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.299831332607031e-05</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3.608402209711319</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.4615880660575966</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.9021005524278297</v>
       </c>
     </row>
     <row r="76">
@@ -1878,19 +2786,31 @@
         <v>4.580030000000001</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0005175059492389411</v>
+        <v>0.0005168465668587397</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>3.506102773409765e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>3.288050866436893e-05</v>
+        <v>-2.327895436783991e-05</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1.44516076635472e-05</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.232091028985774e-05</v>
+        <v>2.682151631529815e-05</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3.152600740931777e-05</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.8173935468455986</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.936101123319494</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.2043483867113997</v>
       </c>
     </row>
     <row r="77">
@@ -1898,19 +2818,31 @@
         <v>4.59008</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0002741643082254083</v>
+        <v>0.0002736583543507506</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>3.214989331825371e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>3.166023832152706e-05</v>
+        <v>-1.982503228312741e-05</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>7.599071387365537e-06</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.006634830299877e-05</v>
+        <v>1.378486354760031e-05</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.656863735255986e-05</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3.761167519811498</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.4392920646067684</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.9402918799528744</v>
       </c>
     </row>
     <row r="78">
@@ -1918,19 +2850,31 @@
         <v>4.60027</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0001354423970981578</v>
+        <v>0.0001359410796625001</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>2.061590235281636e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>2.171475057582856e-05</v>
+        <v>-1.46841934482479e-05</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>4.416175246555004e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.468758567513194e-05</v>
+        <v>8.187094661887408e-06</v>
+      </c>
+      <c r="G78" t="n">
+        <v>9.932718339977941e-06</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.542241717417136</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.8191334555326487</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.3855604293542841</v>
       </c>
     </row>
     <row r="79">
@@ -1938,19 +2882,31 @@
         <v>4.60999</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0001376509350347356</v>
+        <v>0.0001380834907573007</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>-3.461609996802784e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>-3.652044569937109e-06</v>
+        <v>-1.049057170027874e-05</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>5.182751817387729e-06</v>
       </c>
       <c r="F79" t="n">
-        <v>-9.476066902592977e-06</v>
+        <v>9.678954798412222e-06</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.093730310647946e-05</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3.484473477295031</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.48024311040454</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.8711183693237577</v>
       </c>
     </row>
     <row r="80">
@@ -1958,19 +2914,31 @@
         <v>4.62023</v>
       </c>
       <c r="B80" t="n">
-        <v>9.155888145722755e-05</v>
+        <v>9.17143035505607e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1.791386598846149e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>1.857906608256828e-05</v>
+        <v>-3.1261074465585e-05</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>4.59571121798428e-06</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.199570185942177e-05</v>
+        <v>8.046249027943207e-06</v>
+      </c>
+      <c r="G80" t="n">
+        <v>9.476623460393491e-06</v>
+      </c>
+      <c r="H80" t="n">
+        <v>11.14683712886847</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.02496240120910742</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.786709282217117</v>
       </c>
     </row>
     <row r="81">
@@ -1978,19 +2946,31 @@
         <v>4.62994</v>
       </c>
       <c r="B81" t="n">
-        <v>8.734681314476088e-05</v>
+        <v>8.779234615064503e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>-1.85395988551459e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>-3.780086200417124e-06</v>
+        <v>-4.163558091454053e-06</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>3.669835145920395e-06</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.269866196785884e-06</v>
+        <v>6.990641039870169e-06</v>
+      </c>
+      <c r="G81" t="n">
+        <v>7.76374894046998e-06</v>
+      </c>
+      <c r="H81" t="n">
+        <v>9.098888188007221</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.05867471852147499</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.274722047001805</v>
       </c>
     </row>
     <row r="82">
@@ -1998,19 +2978,31 @@
         <v>4.63517</v>
       </c>
       <c r="B82" t="n">
-        <v>5.345214590981718e-05</v>
+        <v>5.303858575673652e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1.106987898476724e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>1.062889327832798e-05</v>
+        <v>-3.246752783597653e-07</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>2.334484100456795e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>1.991977019926012e-07</v>
+        <v>4.373657267033387e-06</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5.14274075134307e-06</v>
+      </c>
+      <c r="H82" t="n">
+        <v>6.596587335992518</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.1588054286265927</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.649146833998129</v>
       </c>
     </row>
     <row r="83">
@@ -2018,19 +3010,31 @@
         <v>4.639959999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>6.451635218387212e-05</v>
+        <v>6.439578297483207e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>2.591171323685744e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>1.674648080553102e-06</v>
+        <v>5.839240999026151e-07</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>2.312557739975019e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>2.063767162105046e-06</v>
+        <v>4.371381800146806e-06</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5.114160276792703e-06</v>
+      </c>
+      <c r="H83" t="n">
+        <v>5.369761431513642</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.2514169504549941</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.342440357878411</v>
       </c>
     </row>
     <row r="84">
@@ -2038,19 +3042,31 @@
         <v>4.64996</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001371881020469399</v>
+        <v>0.0001383168827152918</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>-2.953737278044643e-07</v>
       </c>
       <c r="D84" t="n">
-        <v>2.067475668789492e-06</v>
+        <v>4.73421018113351e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>3.855814130553119e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>3.564366578961862e-06</v>
+        <v>7.206948285736405e-06</v>
+      </c>
+      <c r="G84" t="n">
+        <v>8.527322137417119e-06</v>
+      </c>
+      <c r="H84" t="n">
+        <v>5.339135702128312</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.2542355835105234</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.334783925532078</v>
       </c>
     </row>
     <row r="85">
@@ -2058,19 +3074,31 @@
         <v>4.67012</v>
       </c>
       <c r="B85" t="n">
-        <v>9.275490968306816e-05</v>
+        <v>9.275131165650114e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>5.684882190848647e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>5.368522492382286e-06</v>
+        <v>-4.335323975377645e-06</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>2.460002785432351e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.951035046447091e-06</v>
+        <v>4.557179132752708e-06</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5.423008519125604e-06</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.614205851142435</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.806236660424469</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.4035514627856088</v>
       </c>
     </row>
     <row r="86">
@@ -2078,19 +3106,31 @@
         <v>4.68015</v>
       </c>
       <c r="B86" t="n">
-        <v>4.197624090500639e-05</v>
+        <v>4.22989296542532e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>8.531047569569205e-07</v>
       </c>
       <c r="D86" t="n">
-        <v>1.584534779820857e-06</v>
+        <v>4.197254986025167e-06</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1.203834838586039e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>3.678579489458732e-06</v>
+        <v>2.345727518128923e-06</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2.695010231168824e-06</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3.12193097570369</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.5376318983693318</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.7804827439259225</v>
       </c>
     </row>
     <row r="87">
@@ -2098,19 +3138,31 @@
         <v>4.68993</v>
       </c>
       <c r="B87" t="n">
-        <v>3.601682242147835e-05</v>
+        <v>3.60341091931663e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>4.237326033399504e-07</v>
       </c>
       <c r="D87" t="n">
-        <v>7.066120435836996e-08</v>
+        <v>-2.259034790021951e-06</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1.02459730230661e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.31573102208882e-06</v>
+        <v>1.876024543440688e-06</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.160337933345666e-06</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5.491711639801631</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.2404589943344836</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.372927909950408</v>
       </c>
     </row>
     <row r="88">
@@ -2118,19 +3170,31 @@
         <v>4.71002</v>
       </c>
       <c r="B88" t="n">
-        <v>3.338280716013971e-05</v>
+        <v>3.336456983945779e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1.777444312908223e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>1.626089690136224e-06</v>
+        <v>2.444446027643902e-06</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>8.601439996650482e-07</v>
       </c>
       <c r="F88" t="n">
-        <v>2.53624011671295e-06</v>
+        <v>1.6145874376933e-06</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.898496877408583e-06</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.743866509007662</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.7827346481109301</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.4359666272519154</v>
       </c>
     </row>
     <row r="89">
@@ -2138,19 +3202,31 @@
         <v>4.73</v>
       </c>
       <c r="B89" t="n">
-        <v>4.191728532182998e-05</v>
+        <v>4.231713469963901e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>2.052968482726084e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>2.878951546407611e-06</v>
+        <v>1.280445560107386e-06</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1.103907373569875e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>7.322246286898985e-07</v>
+        <v>2.12697242207936e-06</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2.499369917262284e-06</v>
+      </c>
+      <c r="H89" t="n">
+        <v>4.94596542994675</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.2928868511213309</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.236491357486688</v>
       </c>
     </row>
     <row r="90">
@@ -2158,19 +3234,31 @@
         <v>4.75</v>
       </c>
       <c r="B90" t="n">
-        <v>7.714933096798421e-05</v>
+        <v>7.729652557503317e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>2.583189751386992e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>2.314000715190229e-06</v>
+        <v>-1.117704789857467e-07</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1.929061907697024e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>-6.939107871292872e-07</v>
+        <v>3.521285262915321e-06</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4.299330924691167e-06</v>
+      </c>
+      <c r="H90" t="n">
+        <v>7.866526757876131</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.09659168028549459</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.966631689469033</v>
       </c>
     </row>
     <row r="91">
@@ -2178,19 +3266,31 @@
         <v>4.75518</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001771940897405854</v>
+        <v>0.000177224234133727</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1.036665638859966e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>9.984604492824257e-06</v>
+        <v>9.315885223830031e-07</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>4.26144327401046e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>7.087954778396559e-07</v>
+        <v>7.802635978466231e-06</v>
+      </c>
+      <c r="G91" t="n">
+        <v>9.462768764393698e-06</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2.887634864177479</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.5768020758994948</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.7219087160443698</v>
       </c>
     </row>
     <row r="92">
@@ -2198,19 +3298,31 @@
         <v>4.75888</v>
       </c>
       <c r="B92" t="n">
-        <v>0.000199505945979588</v>
+        <v>0.0001997698202726203</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>2.030627270813734e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>2.415333012662187e-06</v>
+        <v>1.609805445857218e-06</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>4.776893735677144e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>1.439273796342367e-06</v>
+        <v>8.746930356389066e-06</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.050629818054993e-05</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.754504529905265</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.7807946323734448</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4386261324763163</v>
       </c>
     </row>
     <row r="93">
@@ -2218,19 +3330,31 @@
         <v>4.77004</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0002341927416494075</v>
+        <v>0.0002343713563447942</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1.746905619965468e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>1.682315648697961e-05</v>
+        <v>-8.057443582280398e-07</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>5.590955107644493e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.442081703943738e-06</v>
+        <v>1.010249289750832e-05</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.255147376453332e-05</v>
+      </c>
+      <c r="H93" t="n">
+        <v>5.911964331774691</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.2058200037705595</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.477991082943673</v>
       </c>
     </row>
     <row r="94">
@@ -2238,19 +3362,31 @@
         <v>4.77502</v>
       </c>
       <c r="B94" t="n">
-        <v>0.000242332185273902</v>
+        <v>0.0002426459409043006</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1.29133660024751e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>1.339472330079355e-05</v>
+        <v>-2.11726971632506e-06</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>5.972196243685393e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.393056191898989e-06</v>
+        <v>1.10789448092424e-05</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.327926436774476e-05</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1.152990334340835</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.8857761322432415</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.2882475835852089</v>
       </c>
     </row>
     <row r="95">
@@ -2258,19 +3394,31 @@
         <v>4.780180000000001</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0002156942976150492</v>
+        <v>0.0002163150981776299</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1.093089072156625e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>1.229822148198819e-05</v>
+        <v>-8.627520555618126e-06</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>6.191238263900827e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>-8.863261360958253e-06</v>
+        <v>1.157947201292809e-05</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.375784547062896e-05</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.088532506627407</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.8960873582420527</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.2721331266568517</v>
       </c>
     </row>
     <row r="96">
@@ -2278,19 +3426,31 @@
         <v>4.79012</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0001877600406017419</v>
+        <v>0.0001882858360136624</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>8.219361664164935e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>9.573167610275878e-06</v>
+        <v>5.235010120693915e-06</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>5.421715361919358e-06</v>
       </c>
       <c r="F96" t="n">
-        <v>4.667419355301045e-06</v>
+        <v>1.014414568898151e-05</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.203172709047485e-05</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2.580665366164072</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.6302519621614228</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.645166341541018</v>
       </c>
     </row>
     <row r="97">
@@ -2298,19 +3458,31 @@
         <v>4.799919999999999</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0001424231692935254</v>
+        <v>0.0001426952023311678</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>2.259723850697121e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>3.059922155427119e-06</v>
+        <v>4.264987122166639e-06</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>4.036771405697978e-06</v>
       </c>
       <c r="F97" t="n">
-        <v>3.947440950886049e-06</v>
+        <v>7.567485654115529e-06</v>
+      </c>
+      <c r="G97" t="n">
+        <v>8.894275213332514e-06</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.653223923142409</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.7991959671470676</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4133059807856022</v>
       </c>
     </row>
     <row r="98">
@@ -2318,19 +3490,31 @@
         <v>4.81003</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0001324311902811777</v>
+        <v>0.0001322098791787746</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>6.791906214081785e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>6.248346491896032e-06</v>
+        <v>-3.189540932968922e-06</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>3.611974260118438e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.917112171479761e-06</v>
+        <v>6.677065060609443e-06</v>
+      </c>
+      <c r="G98" t="n">
+        <v>7.851015321537714e-06</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.149114448268166</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.886403407394596</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.2872786120670416</v>
       </c>
     </row>
     <row r="99">
@@ -2338,19 +3522,31 @@
         <v>4.81216</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001238720011677813</v>
+        <v>0.0001241398344615859</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1.151265896318829e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>1.218337885834491e-05</v>
+        <v>-2.036869195132474e-06</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>3.127921760483665e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.487565044043808e-06</v>
+        <v>5.745047452176372e-06</v>
+      </c>
+      <c r="G99" t="n">
+        <v>7.019514721725728e-06</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2.321455880267604</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.6768654529725268</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5803639700669011</v>
       </c>
     </row>
     <row r="100">
@@ -2358,19 +3554,31 @@
         <v>4.81527</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0001217042534250356</v>
+        <v>0.0001219946641365947</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>7.486864262000266e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>7.987970340383607e-06</v>
+        <v>-3.12873723408151e-06</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>2.929544816256031e-06</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.357751021064997e-06</v>
+        <v>5.415110670009975e-06</v>
+      </c>
+      <c r="G100" t="n">
+        <v>6.54526920604946e-06</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.9593673718028745</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.9158933541281494</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2398418429507186</v>
       </c>
     </row>
     <row r="101">
@@ -2378,19 +3586,31 @@
         <v>4.82006</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0001206363044164151</v>
+        <v>0.0001205960902939499</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1.450076353631931e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>1.442326861108073e-05</v>
+        <v>-1.533499546886862e-06</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>2.790534274684394e-06</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.017468431500527e-06</v>
+        <v>5.053641963111784e-06</v>
+      </c>
+      <c r="G101" t="n">
+        <v>6.279799532415777e-06</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2.368051612407325</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.6684083884040615</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5920129031018313</v>
       </c>
     </row>
     <row r="102">
@@ -2398,19 +3618,31 @@
         <v>4.82989</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0001208936292285065</v>
+        <v>0.0001210103025090819</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>6.606776348643247e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>6.626193842776172e-06</v>
+        <v>1.206338831891162e-06</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>2.712256359028854e-06</v>
       </c>
       <c r="F102" t="n">
-        <v>7.395593919461799e-07</v>
+        <v>4.929201810524389e-06</v>
+      </c>
+      <c r="G102" t="n">
+        <v>6.096701266124276e-06</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2.554852212484376</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.6348413195845728</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.6387130531210939</v>
       </c>
     </row>
     <row r="103">
@@ -2418,19 +3650,31 @@
         <v>4.85003</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0001424792617743248</v>
+        <v>0.0001425781764991578</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>7.360551022909183e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>7.299062213302349e-06</v>
+        <v>4.250594630709819e-06</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>3.149739288300751e-06</v>
       </c>
       <c r="F103" t="n">
-        <v>3.622707919620633e-06</v>
+        <v>5.724540165188345e-06</v>
+      </c>
+      <c r="G103" t="n">
+        <v>7.074833802286588e-06</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2.549048962817164</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.6358748765289379</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.637262240704291</v>
       </c>
     </row>
     <row r="104">
@@ -2438,19 +3682,31 @@
         <v>4.86629</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0001901483829373268</v>
+        <v>0.0001901936751659223</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1.8835878733793e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>1.891929005684057e-05</v>
+        <v>-4.968366056196907e-07</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>4.178940872554646e-06</v>
       </c>
       <c r="F104" t="n">
-        <v>-1.110281506449697e-06</v>
+        <v>7.500359947002396e-06</v>
+      </c>
+      <c r="G104" t="n">
+        <v>9.3821172158392e-06</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.547001598061747</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.8182843773196528</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.3867503995154367</v>
       </c>
     </row>
     <row r="105">
@@ -2458,19 +3714,31 @@
         <v>4.88989</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0003109736891282978</v>
+        <v>0.0003112052822212022</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>2.365641734470805e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>2.35236091272588e-05</v>
+        <v>1.231826043120599e-06</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>6.730667643760848e-06</v>
       </c>
       <c r="F105" t="n">
-        <v>-1.497133800610405e-07</v>
+        <v>1.203314649290371e-05</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.505265411647408e-05</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2.725042420772864</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.60483967740144</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.681260605193216</v>
       </c>
     </row>
     <row r="106">
@@ -2478,19 +3746,31 @@
         <v>4.89991</v>
       </c>
       <c r="B106" t="n">
-        <v>0.00047578419568433</v>
+        <v>0.0004760324603332221</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>3.047960401427385e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>3.043517985909316e-05</v>
+        <v>-2.80904664215053e-06</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1.039853321623057e-05</v>
       </c>
       <c r="F106" t="n">
-        <v>-3.921170245228811e-06</v>
+        <v>1.865009487830198e-05</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2.316622961282612e-05</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.699262501076539</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.7908515874143457</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.4248156252691346</v>
       </c>
     </row>
     <row r="107">
@@ -2498,19 +3778,31 @@
         <v>4.910130000000001</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0006298113698913094</v>
+        <v>0.000630077284700765</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>5.107970643454123e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>5.07860458537533e-05</v>
+        <v>-3.096166599555724e-06</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1.364403513087675e-05</v>
       </c>
       <c r="F107" t="n">
-        <v>-5.383979209123336e-06</v>
+        <v>2.445404984743791e-05</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3.056033466775588e-05</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.9909432247923</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.7374247773375127</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.4977358061980751</v>
       </c>
     </row>
     <row r="108">
@@ -2518,19 +3810,31 @@
         <v>4.91996</v>
       </c>
       <c r="B108" t="n">
-        <v>0.000837935848207955</v>
+        <v>0.0008384969194547299</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>3.621813066114209e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>3.635634441087942e-05</v>
+        <v>-2.481839660154047e-06</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>1.821497936736841e-05</v>
       </c>
       <c r="F108" t="n">
-        <v>-2.646408500321865e-06</v>
+        <v>3.269681969123566e-05</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4.015211356054045e-05</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.116851322105911</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.8915894225389025</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.2792128305264778</v>
       </c>
     </row>
     <row r="109">
@@ -2538,19 +3842,31 @@
         <v>4.92615</v>
       </c>
       <c r="B109" t="n">
-        <v>0.001043891718383223</v>
+        <v>0.001044370188735925</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>7.953906586386633e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>7.894972020448166e-05</v>
+        <v>2.647328485477687e-06</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>2.242258759260936e-05</v>
       </c>
       <c r="F109" t="n">
-        <v>-2.448100960255693e-06</v>
+        <v>4.009530028482829e-05</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5.021473482292907e-05</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2.364668563793316</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.6690214166407817</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.591167140948329</v>
       </c>
     </row>
     <row r="110">
@@ -2558,19 +3874,31 @@
         <v>4.930190000000001</v>
       </c>
       <c r="B110" t="n">
-        <v>0.001129238997818837</v>
+        <v>0.001129330345374686</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>0.0001064775464425432</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0001064631955922338</v>
+        <v>-9.112175518842004e-07</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>2.431463334135472e-05</v>
       </c>
       <c r="F110" t="n">
-        <v>-4.64114898259637e-06</v>
+        <v>4.367147077335801e-05</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5.477316668460157e-05</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.176886229789937</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.8818892908888143</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.2942215574474843</v>
       </c>
     </row>
     <row r="111">
@@ -2578,19 +3906,31 @@
         <v>4.93692</v>
       </c>
       <c r="B111" t="n">
-        <v>0.001408277082078759</v>
+        <v>0.001408721165359353</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>0.0001209088205736031</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0001210635799248746</v>
+        <v>-7.347928702529155e-06</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>3.017300217084615e-05</v>
       </c>
       <c r="F111" t="n">
-        <v>-1.234981812221484e-05</v>
+        <v>5.388579003007386e-05</v>
+      </c>
+      <c r="G111" t="n">
+        <v>6.762269534811574e-05</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.532905757459386</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.8207970766140172</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.3832264393648465</v>
       </c>
     </row>
     <row r="112">
@@ -2598,19 +3938,31 @@
         <v>4.94675</v>
       </c>
       <c r="B112" t="n">
-        <v>0.001727203162963202</v>
+        <v>0.00172802823442015</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>0.0001029013126196502</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0001024555991765876</v>
+        <v>-9.577522567837289e-06</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>3.702886873408446e-05</v>
       </c>
       <c r="F112" t="n">
-        <v>-1.4549538592504e-05</v>
+        <v>6.613629513397876e-05</v>
+      </c>
+      <c r="G112" t="n">
+        <v>8.226657008396971e-05</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.685269108689326</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.793391738456397</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.4213172771723314</v>
       </c>
     </row>
     <row r="113">
@@ -2618,19 +3970,31 @@
         <v>4.95027</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001746547376900581</v>
+        <v>0.001747622327910624</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>0.0001096503837934124</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0001081266195584855</v>
+        <v>3.64166893143409e-06</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>3.75549396914522e-05</v>
       </c>
       <c r="F113" t="n">
-        <v>-3.900673366369997e-06</v>
+        <v>6.717687153692695e-05</v>
+      </c>
+      <c r="G113" t="n">
+        <v>8.371057391621658e-05</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2.536468742784405</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.6381176217566872</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.6341171856961012</v>
       </c>
     </row>
     <row r="114">
@@ -2638,19 +4002,31 @@
         <v>4.95676</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001958533028021717</v>
+        <v>0.001960273931931118</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>7.717043097030848e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>7.643902551582858e-05</v>
+        <v>8.661885176737983e-06</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>4.207285623854011e-05</v>
       </c>
       <c r="F114" t="n">
-        <v>5.287386673048407e-06</v>
+        <v>7.506776992431882e-05</v>
+      </c>
+      <c r="G114" t="n">
+        <v>9.314856075167763e-05</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.971200783055512</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.741056017871573</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.492800195763878</v>
       </c>
     </row>
     <row r="115">
@@ -2658,19 +4034,31 @@
         <v>4.961869999999999</v>
       </c>
       <c r="B115" t="n">
-        <v>0.002000846134549071</v>
+        <v>0.002002077965636846</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>0.0001014381253674067</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0001011181425793684</v>
+        <v>-1.586333177320967e-05</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>4.291353554288769e-05</v>
       </c>
       <c r="F115" t="n">
-        <v>-1.95314490878143e-05</v>
+        <v>7.660934554013954e-05</v>
+      </c>
+      <c r="G115" t="n">
+        <v>9.498816869272882e-05</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.540702668920441</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.8194078665587079</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.3851756672301102</v>
       </c>
     </row>
     <row r="116">
@@ -2678,19 +4066,31 @@
         <v>4.96475</v>
       </c>
       <c r="B116" t="n">
-        <v>0.001987626204935098</v>
+        <v>0.001989471992682378</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>9.57553838715218e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>9.506203243657375e-05</v>
+        <v>2.588407278091877e-06</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>4.271799930208804e-05</v>
       </c>
       <c r="F116" t="n">
-        <v>-2.859935899888723e-06</v>
+        <v>7.604344319550261e-05</v>
+      </c>
+      <c r="G116" t="n">
+        <v>9.477373256684576e-05</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2.339595976491939</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.6735696200134638</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5848989941229847</v>
       </c>
     </row>
     <row r="117">
@@ -2698,19 +4098,31 @@
         <v>4.96787</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001955067740677713</v>
+        <v>0.001956536219479135</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>0.0001107852468344424</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0001101754104362676</v>
+        <v>-1.596237141636425e-05</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>4.198025038313658e-05</v>
       </c>
       <c r="F117" t="n">
-        <v>-2.107802096846931e-05</v>
+        <v>7.484753280083695e-05</v>
+      </c>
+      <c r="G117" t="n">
+        <v>9.302794399652955e-05</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2.038328961556329</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.7287090913164239</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5095822403890822</v>
       </c>
     </row>
     <row r="118">
@@ -2718,19 +4130,31 @@
         <v>4.97004</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001954308831622483</v>
+        <v>0.001956175678390461</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>8.931013437140257e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>8.561842741361383e-05</v>
+        <v>5.388554067502997e-05</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>4.204837166904317e-05</v>
       </c>
       <c r="F118" t="n">
-        <v>4.389097294424867e-05</v>
+        <v>7.568115988798062e-05</v>
+      </c>
+      <c r="G118" t="n">
+        <v>9.365053138484013e-05</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3.54870865605434</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.4705108392545816</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.8871771640135849</v>
       </c>
     </row>
     <row r="119">
@@ -2738,19 +4162,31 @@
         <v>4.9728</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001856984750554833</v>
+        <v>0.00185830338295451</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>0.000109850616191686</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0001094763716521898</v>
+        <v>-3.850102067760614e-06</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>3.982872101769339e-05</v>
       </c>
       <c r="F119" t="n">
-        <v>-9.799899130759967e-06</v>
+        <v>7.091188080831771e-05</v>
+      </c>
+      <c r="G119" t="n">
+        <v>8.864928191035279e-05</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2.095939911664229</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.7181183298079252</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.5239849779160574</v>
       </c>
     </row>
     <row r="120">
@@ -2758,19 +4194,31 @@
         <v>4.97463</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001812508268795422</v>
+        <v>0.001813632665868387</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>9.490199203907631e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>9.469864763990191e-05</v>
+        <v>-2.301956635659833e-05</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>3.89421064086438e-05</v>
       </c>
       <c r="F120" t="n">
-        <v>-2.603307502432037e-05</v>
+        <v>6.946070510762083e-05</v>
+      </c>
+      <c r="G120" t="n">
+        <v>8.617297312262794e-05</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.499815924437496</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.8266740734736135</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.3749539811093741</v>
       </c>
     </row>
     <row r="121">
@@ -2778,19 +4226,31 @@
         <v>4.98471</v>
       </c>
       <c r="B121" t="n">
-        <v>0.001489665885858197</v>
+        <v>0.001490922781147</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>6.472222082794688e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>6.472609757650721e-05</v>
+        <v>-1.611379584871364e-05</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>3.205120689891538e-05</v>
       </c>
       <c r="F121" t="n">
-        <v>-1.837086240855781e-05</v>
+        <v>5.697318691062618e-05</v>
+      </c>
+      <c r="G121" t="n">
+        <v>7.078160471071127e-05</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.763012164239383</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.7792420843033623</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.4407530410598457</v>
       </c>
     </row>
     <row r="122">
@@ -2798,19 +4258,31 @@
         <v>4.990069999999999</v>
       </c>
       <c r="B122" t="n">
-        <v>0.001383452675189988</v>
+        <v>0.001384950065970084</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>7.74740250093749e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>7.48658426902225e-05</v>
+        <v>3.263669866151683e-05</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>2.982398111242969e-05</v>
       </c>
       <c r="F122" t="n">
-        <v>2.491522450411128e-05</v>
+        <v>5.359685124054837e-05</v>
+      </c>
+      <c r="G122" t="n">
+        <v>6.663130572386772e-05</v>
+      </c>
+      <c r="H122" t="n">
+        <v>3.892467226956592</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.4207543951195725</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.973116806739148</v>
       </c>
     </row>
     <row r="123">
@@ -2818,19 +4290,31 @@
         <v>4.994669999999999</v>
       </c>
       <c r="B123" t="n">
-        <v>0.001165526777831124</v>
+        <v>0.001166153596244909</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>8.664646149868281e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>8.65437513045783e-05</v>
+        <v>-1.203250015543523e-05</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>2.502970596764147e-05</v>
       </c>
       <c r="F123" t="n">
-        <v>-1.623409841177843e-05</v>
+        <v>4.456729014783978e-05</v>
+      </c>
+      <c r="G123" t="n">
+        <v>5.584976000004831e-05</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1.971491061071531</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.7410026297469843</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.4928727652678829</v>
       </c>
     </row>
     <row r="124">
@@ -2838,19 +4322,31 @@
         <v>5.00464</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0009053344045268537</v>
+        <v>0.0009057378635669149</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>4.836377400167379e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>4.8443441441599e-05</v>
+        <v>-1.434434643754956e-05</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1.943802121818576e-05</v>
       </c>
       <c r="F124" t="n">
-        <v>-1.541849832033716e-05</v>
+        <v>3.470673702639075e-05</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4.303603758144989e-05</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1.019001892243262</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.9069011239669421</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.2547504730608155</v>
       </c>
     </row>
     <row r="125">
@@ -2858,19 +4354,31 @@
         <v>5.00999</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0008260507430800562</v>
+        <v>0.0008269545094109347</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>3.905873547751181e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>3.79605230100268e-05</v>
+        <v>4.102586917439097e-06</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1.791992706080614e-05</v>
       </c>
       <c r="F125" t="n">
-        <v>1.412273717430168e-06</v>
+        <v>3.209636531137455e-05</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3.9706778162553e-05</v>
+      </c>
+      <c r="H125" t="n">
+        <v>3.177996611701611</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.5284921857761673</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.7944991529254027</v>
       </c>
     </row>
     <row r="126">
@@ -2878,19 +4386,31 @@
         <v>5.01484</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0007125919794372235</v>
+        <v>0.0007129178071506003</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>5.895753630349272e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>5.904922197565908e-05</v>
+        <v>-7.864700075298735e-06</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1.536191635205619e-05</v>
       </c>
       <c r="F126" t="n">
-        <v>-1.043375835981685e-05</v>
+        <v>2.736398476393945e-05</v>
+      </c>
+      <c r="G126" t="n">
+        <v>3.43565345775932e-05</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1.843036045333252</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.7645999583367871</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.4607590113333129</v>
       </c>
     </row>
     <row r="127">
@@ -2898,19 +4418,31 @@
         <v>5.01774</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0006783969833401183</v>
+        <v>0.000678726262623936</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>3.630456950946153e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>3.620583612556451e-05</v>
+        <v>-1.547833103105465e-05</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1.470735669632572e-05</v>
       </c>
       <c r="F127" t="n">
-        <v>-1.604983539243385e-05</v>
+        <v>2.632595054965006e-05</v>
+      </c>
+      <c r="G127" t="n">
+        <v>3.252935473854224e-05</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1.074894685422257</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.8982347134836441</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.2687236713555641</v>
       </c>
     </row>
     <row r="128">
@@ -2918,19 +4450,31 @@
         <v>5.01786</v>
       </c>
       <c r="B128" t="n">
-        <v>0.000681427009063147</v>
+        <v>0.0006817380052267123</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>3.507828957465914e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>3.521501144283918e-05</v>
+        <v>-1.548494632739e-05</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1.476118670412614e-05</v>
       </c>
       <c r="F128" t="n">
-        <v>-1.590253688248741e-05</v>
+        <v>2.635074849350203e-05</v>
+      </c>
+      <c r="G128" t="n">
+        <v>3.253731897756589e-05</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.9047133316214042</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.9238836437370398</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.2261783329053511</v>
       </c>
     </row>
     <row r="129">
@@ -2938,19 +4482,31 @@
         <v>5.019819999999999</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0006742729394924894</v>
+        <v>0.0006744656518929771</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>5.513306690106587e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>5.548350269951125e-05</v>
+        <v>-4.782988235124957e-05</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1.474780154147297e-05</v>
       </c>
       <c r="F129" t="n">
-        <v>-4.815597322792685e-05</v>
+        <v>2.611538582327176e-05</v>
+      </c>
+      <c r="G129" t="n">
+        <v>3.24772611093912e-05</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.3650282617810482</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.9852386926877663</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.09125706544526206</v>
       </c>
     </row>
     <row r="130">
@@ -2958,19 +4514,31 @@
         <v>5.0248</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0006542398696463918</v>
+        <v>0.0006546964268451624</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>4.001625862170752e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>4.067517357316575e-05</v>
+        <v>-3.72536494653771e-05</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1.466678935655357e-05</v>
       </c>
       <c r="F130" t="n">
-        <v>-3.750709558033959e-05</v>
+        <v>2.633281645457276e-05</v>
+      </c>
+      <c r="G130" t="n">
+        <v>3.238686152906422e-05</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.4157662887357156</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.981165837436721</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.1039415721839289</v>
       </c>
     </row>
     <row r="131">
@@ -2978,19 +4546,31 @@
         <v>5.027830000000001</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0006586742597760179</v>
+        <v>0.0006590732738453285</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>4.089257107810603e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>4.151500559821568e-05</v>
+        <v>-3.480301554036449e-05</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1.489237340340699e-05</v>
       </c>
       <c r="F131" t="n">
-        <v>-3.477525612519028e-05</v>
+        <v>2.654031510435313e-05</v>
+      </c>
+      <c r="G131" t="n">
+        <v>3.274146029988959e-05</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.8766388202952872</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.9278881751154254</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.2191597050738218</v>
       </c>
     </row>
     <row r="132">
@@ -2998,19 +4578,31 @@
         <v>5.0301</v>
       </c>
       <c r="B132" t="n">
-        <v>0.000667553359482401</v>
+        <v>0.00066782638487294</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1.397528857293969e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>1.195075132695231e-05</v>
+        <v>1.842454780108191e-05</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1.529226382490953e-05</v>
       </c>
       <c r="F132" t="n">
-        <v>1.605454196323424e-05</v>
+        <v>2.785836144569913e-05</v>
+      </c>
+      <c r="G132" t="n">
+        <v>3.379557014067393e-05</v>
+      </c>
+      <c r="H132" t="n">
+        <v>3.781657747541097</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.4363609089466884</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.9454144368852743</v>
       </c>
     </row>
     <row r="133">
@@ -3018,19 +4610,31 @@
         <v>5.032780000000001</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0007418598319450586</v>
+        <v>0.0007419073106776131</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>5.270157473209736e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>5.293923706839161e-05</v>
+        <v>-3.275606624627138e-05</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1.666135110825975e-05</v>
       </c>
       <c r="F133" t="n">
-        <v>-3.322389408632278e-05</v>
+        <v>2.984513385477814e-05</v>
+      </c>
+      <c r="G133" t="n">
+        <v>3.668686966195483e-05</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.3842429624929151</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.9837465325350003</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.09606074062322878</v>
       </c>
     </row>
     <row r="134">
@@ -3038,19 +4642,31 @@
         <v>5.0359</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0008108423493391018</v>
+        <v>0.0008110984407361676</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>2.941844383333057e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>2.970810668332995e-05</v>
+        <v>-3.866197724750812e-05</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1.816570327552564e-05</v>
       </c>
       <c r="F134" t="n">
-        <v>-3.921384334300365e-05</v>
+        <v>3.262526562399816e-05</v>
+      </c>
+      <c r="G134" t="n">
+        <v>3.966543040605695e-05</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.3719279224588867</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.9847100487090341</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.09298198061472167</v>
       </c>
     </row>
     <row r="135">
@@ -3058,19 +4674,31 @@
         <v>5.03871</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0008502725911576902</v>
+        <v>0.0008505458412969131</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>3.572918479003481e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>3.544008755000893e-05</v>
+        <v>-4.526357423903873e-05</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1.903922079724162e-05</v>
       </c>
       <c r="F135" t="n">
-        <v>-4.640290119622272e-05</v>
+        <v>3.419821744803104e-05</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4.142820887231836e-05</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.7555121056727006</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.9443108037268719</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.1888780264181751</v>
       </c>
     </row>
     <row r="136">
@@ -3078,19 +4706,31 @@
         <v>5.041980000000001</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0008619393701886261</v>
+        <v>0.0008632031472484797</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>5.072239121175402e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>5.264546203425621e-05</v>
+        <v>-2.952103676109505e-05</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1.948063795473973e-05</v>
       </c>
       <c r="F136" t="n">
-        <v>-2.989343407776677e-05</v>
+        <v>3.504414370496016e-05</v>
+      </c>
+      <c r="G136" t="n">
+        <v>4.300692254510773e-05</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1.283367516983851</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.8641910937374455</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.3208418792459629</v>
       </c>
     </row>
     <row r="137">
@@ -3098,19 +4738,31 @@
         <v>5.04479</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0008425675760586011</v>
+        <v>0.0008429456624808793</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>4.615035175505565e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>4.661621714838882e-05</v>
+        <v>-5.681159861902841e-05</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1.891068884326007e-05</v>
       </c>
       <c r="F137" t="n">
-        <v>-5.761266139392029e-05</v>
+        <v>3.393348319868256e-05</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4.14546078871877e-05</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.3512958891855391</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.9862666678088802</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.08782397229638476</v>
       </c>
     </row>
     <row r="138">
@@ -3118,19 +4770,31 @@
         <v>5.04997</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0007995639567340324</v>
+        <v>0.0007998222066655566</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>5.160197382203421e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>5.097720325260503e-05</v>
+        <v>-4.518321469764016e-06</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1.800918695377227e-05</v>
       </c>
       <c r="F138" t="n">
-        <v>-6.564623816924288e-06</v>
+        <v>3.257118931105192e-05</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4.013149743417269e-05</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.997868549452763</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.7361509406867315</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.4994671373631907</v>
       </c>
     </row>
     <row r="139">
@@ -3138,19 +4802,31 @@
         <v>5.05484</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0006894937307238599</v>
+        <v>0.0006899870105582029</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>3.935425591953238e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>4.021675865165681e-05</v>
+        <v>-3.757395563216113e-05</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1.537850721590938e-05</v>
       </c>
       <c r="F139" t="n">
-        <v>-3.786404037642721e-05</v>
+        <v>2.755934292631509e-05</v>
+      </c>
+      <c r="G139" t="n">
+        <v>3.38523219979918e-05</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.5060844017908039</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.9729059651957903</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.126521100447701</v>
       </c>
     </row>
     <row r="140">
@@ -3158,19 +4834,31 @@
         <v>5.06488</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0004306348873474431</v>
+        <v>0.0004307616918998181</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>2.016869394288242e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>2.043024330174121e-05</v>
+        <v>-1.755468020375424e-05</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>9.611050583105931e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>-1.763165789867345e-05</v>
+        <v>1.726548324526395e-05</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2.115427059334717e-05</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.2864618317624029</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.9906712598857993</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.07161545794060072</v>
       </c>
     </row>
     <row r="141">
@@ -3178,19 +4866,31 @@
         <v>5.06991</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0003611518869145126</v>
+        <v>0.0003614754930338811</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1.178653400505167e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>1.142838670169317e-05</v>
+        <v>1.030573635166942e-05</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>8.177765913390875e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>8.43917446322463e-06</v>
+        <v>1.49687890045411e-05</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1.827206180596718e-05</v>
+      </c>
+      <c r="H141" t="n">
+        <v>3.334346200168043</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.5035088688538051</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.8335865500420107</v>
       </c>
     </row>
     <row r="142">
@@ -3198,19 +4898,31 @@
         <v>5.07448</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0002915241349639179</v>
+        <v>0.0002915168901096309</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1.943511411642328e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>1.951944129183134e-05</v>
+        <v>-1.771156057815698e-05</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>6.476610315976711e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>-1.789089258334464e-05</v>
+        <v>1.153692243133394e-05</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1.420530321698148e-05</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.1904743335210505</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.9957428511628421</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.04761858338026262</v>
       </c>
     </row>
     <row r="143">
@@ -3218,19 +4930,31 @@
         <v>5.08419</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0002247325546627681</v>
+        <v>0.0002249272321056445</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>2.285993443620327e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>2.312031124288012e-05</v>
+        <v>-7.916544805590083e-06</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>5.081969561506614e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>-8.036580006704756e-06</v>
+        <v>9.138097459337792e-06</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.133690538959596e-05</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1.178757184504309</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.88158357214496</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.2946892961260772</v>
       </c>
     </row>
     <row r="144">
@@ -3238,19 +4962,31 @@
         <v>5.08999</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002118039187211375</v>
+        <v>0.0002126004864517632</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>2.022738353879802e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>3.357730362494586e-06</v>
+        <v>8.175146848804406e-06</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>4.892539232373155e-06</v>
       </c>
       <c r="F144" t="n">
-        <v>6.990467453270463e-06</v>
+        <v>9.057788150972198e-06</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1.086925707932979e-05</v>
+      </c>
+      <c r="H144" t="n">
+        <v>3.875121739825999</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.4231700086473356</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.9687804349564997</v>
       </c>
     </row>
     <row r="145">
@@ -3258,19 +4994,31 @@
         <v>5.093719999999999</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0002045571263223493</v>
+        <v>0.0002052053283326672</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>6.231160357769044e-06</v>
       </c>
       <c r="D145" t="n">
-        <v>7.748298513752726e-06</v>
+        <v>-1.088232852951868e-05</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>5.322984147116961e-06</v>
       </c>
       <c r="F145" t="n">
-        <v>-1.175305505745089e-05</v>
+        <v>9.80318873260892e-06</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1.169317985136531e-05</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1.22390991841816</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.8741465356509236</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.3059774796045401</v>
       </c>
     </row>
     <row r="146">
@@ -3278,19 +5026,31 @@
         <v>5.09676</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0002136514303739123</v>
+        <v>0.0002137017405652374</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1.113642612080864e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>1.139764398361447e-05</v>
+        <v>-1.048109581989933e-06</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>5.324129042333078e-06</v>
       </c>
       <c r="F146" t="n">
-        <v>-1.220041032008892e-06</v>
+        <v>9.842309523963343e-06</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1.176804795551586e-05</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.2685049506770676</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.9917555202603079</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.0671262376692669</v>
       </c>
     </row>
     <row r="147">
@@ -3298,19 +5058,31 @@
         <v>5.09889</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0002024157692142537</v>
+        <v>0.0002026587646985162</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>8.283021278547597e-06</v>
       </c>
       <c r="D147" t="n">
-        <v>8.757050448179428e-06</v>
+        <v>1.05003479128527e-05</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>5.402382141277157e-06</v>
       </c>
       <c r="F147" t="n">
-        <v>9.706714923672281e-06</v>
+        <v>1.008401453175848e-05</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1.208455516285567e-05</v>
+      </c>
+      <c r="H147" t="n">
+        <v>3.690765038394993</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.4494705216590689</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.9226912595987483</v>
       </c>
     </row>
     <row r="148">
@@ -3318,19 +5090,31 @@
         <v>5.09999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0002023140606339316</v>
+        <v>0.0002022090519357687</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>3.319130155714403e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>3.362174935167501e-05</v>
+        <v>-6.188837808365885e-06</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>5.556024469294935e-06</v>
       </c>
       <c r="F148" t="n">
-        <v>-6.666311864517679e-06</v>
+        <v>1.027423866825583e-05</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1.264327539793813e-05</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1.697059398973621</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.7912517186809076</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.4242648497434053</v>
       </c>
     </row>
     <row r="149">
@@ -3338,19 +5122,31 @@
         <v>5.10043</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0002022008013451466</v>
+        <v>0.0002023829612722775</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1.143153843311676e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>1.166699404838048e-05</v>
+        <v>-1.356275750865005e-06</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>5.556045018596934e-06</v>
       </c>
       <c r="F149" t="n">
-        <v>-1.129580611816631e-06</v>
+        <v>1.024319165161141e-05</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1.220007781809136e-05</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2.10635680476829</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.7162046207080384</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.5265892011920725</v>
       </c>
     </row>
     <row r="150">
@@ -3358,19 +5154,31 @@
         <v>5.100709999999999</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0001993549067964582</v>
+        <v>0.000199147001410306</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>9.46598721482835e-06</v>
       </c>
       <c r="D150" t="n">
-        <v>8.361798852310608e-06</v>
+        <v>7.399571335212215e-06</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>5.456425430809075e-06</v>
       </c>
       <c r="F150" t="n">
-        <v>8.512413892106732e-06</v>
+        <v>1.018247944110448e-05</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1.199768114631606e-05</v>
+      </c>
+      <c r="H150" t="n">
+        <v>3.293826214675756</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.5099110340713779</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.8234565536689389</v>
       </c>
     </row>
     <row r="151">
@@ -3378,19 +5186,31 @@
         <v>5.10288</v>
       </c>
       <c r="B151" t="n">
-        <v>0.000199434737875661</v>
+        <v>0.000199487895589295</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>9.330329808289315e-06</v>
       </c>
       <c r="D151" t="n">
-        <v>9.453255893764883e-06</v>
+        <v>-1.241699936187907e-05</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>5.502656098329531e-06</v>
       </c>
       <c r="F151" t="n">
-        <v>-1.204689577190597e-05</v>
+        <v>1.0135006663154e-05</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1.207179881615683e-05</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.3922518870032866</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.9831063361226526</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.09806297175082165</v>
       </c>
     </row>
     <row r="152">
@@ -3398,19 +5218,31 @@
         <v>5.10486</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0001922012738827403</v>
+        <v>0.0001927608961108338</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1.47248500374041e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>1.424153500252003e-05</v>
+        <v>1.306470863822885e-06</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>5.267431011081333e-06</v>
       </c>
       <c r="F152" t="n">
-        <v>3.979208204225162e-09</v>
+        <v>9.840865023796427e-06</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1.202702450556903e-05</v>
+      </c>
+      <c r="H152" t="n">
+        <v>8.088834537595417</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.08837774200253878</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2.022208634398854</v>
       </c>
     </row>
     <row r="153">
@@ -3418,19 +5250,31 @@
         <v>5.1069</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0001913704584956281</v>
+        <v>0.0001916618152383794</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-4.925096056803487e-07</v>
       </c>
       <c r="D153" t="n">
-        <v>-3.806998849687607e-07</v>
+        <v>5.575605593679004e-07</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>5.348922709570318e-06</v>
       </c>
       <c r="F153" t="n">
-        <v>7.498833338436524e-07</v>
+        <v>1.000645936325447e-05</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1.170577246380978e-05</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1.084981153818087</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.8966477346025944</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.2712452884545217</v>
       </c>
     </row>
     <row r="154">
@@ -3438,19 +5282,31 @@
         <v>5.10878</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0001774803288027596</v>
+        <v>0.0001775980749345649</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>2.541427729299683e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>2.592359628134461e-05</v>
+        <v>-1.66583971407321e-07</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>4.932039005469098e-06</v>
       </c>
       <c r="F154" t="n">
-        <v>-9.176159852069822e-07</v>
+        <v>9.084206894977529e-06</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1.121562556339422e-05</v>
+      </c>
+      <c r="H154" t="n">
+        <v>4.234814377399141</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.3751589179290802</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.058703594349785</v>
       </c>
     </row>
     <row r="155">
@@ -3458,19 +5314,31 @@
         <v>5.110040000000001</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0001778351061514591</v>
+        <v>0.0001788296996013865</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1.85116397858339e-06</v>
       </c>
       <c r="D155" t="n">
-        <v>3.777518630693891e-06</v>
+        <v>1.143596427357631e-05</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>5.071461770627668e-06</v>
       </c>
       <c r="F155" t="n">
-        <v>8.87148332742078e-06</v>
+        <v>9.597207036073898e-06</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.139831921320949e-05</v>
+      </c>
+      <c r="H155" t="n">
+        <v>7.547204790148179</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.1096456851384354</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.886801197537045</v>
       </c>
     </row>
     <row r="156">
@@ -3478,19 +5346,31 @@
         <v>5.11075</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0001811559306826564</v>
+        <v>0.0001809833050499902</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>4.155879273700172e-06</v>
       </c>
       <c r="D156" t="n">
-        <v>2.936725518092067e-06</v>
+        <v>-1.236574532191255e-05</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>5.139613048737604e-06</v>
       </c>
       <c r="F156" t="n">
-        <v>-1.086235287173757e-05</v>
+        <v>9.314414059267178e-06</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.115588242909986e-05</v>
+      </c>
+      <c r="H156" t="n">
+        <v>5.653230004376045</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.2265851647937512</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.413307501094011</v>
       </c>
     </row>
     <row r="157">
@@ -3498,19 +5378,31 @@
         <v>5.11384</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0001798568282008199</v>
+        <v>0.0001798164912673991</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>-3.464744152160661e-06</v>
       </c>
       <c r="D157" t="n">
-        <v>-4.328056579196572e-06</v>
+        <v>-3.434718056678266e-06</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>4.980055903741966e-06</v>
       </c>
       <c r="F157" t="n">
-        <v>-2.207672392124263e-06</v>
+        <v>9.170733129893255e-06</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.084176565061613e-05</v>
+      </c>
+      <c r="H157" t="n">
+        <v>3.343443108163155</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.5020786427783611</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.8358607770407888</v>
       </c>
     </row>
     <row r="158">
@@ -3518,19 +5410,31 @@
         <v>5.1188</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0001576470761961545</v>
+        <v>0.0001586975596237607</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>8.738220137473121e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>9.828856731319954e-06</v>
+        <v>6.203189539131008e-06</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>4.235595990875637e-06</v>
       </c>
       <c r="F158" t="n">
-        <v>5.543781046316566e-06</v>
+        <v>7.854221260048685e-06</v>
+      </c>
+      <c r="G158" t="n">
+        <v>9.453696520348768e-06</v>
+      </c>
+      <c r="H158" t="n">
+        <v>5.866853162055027</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.209314864609049</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1.466713290513757</v>
       </c>
     </row>
     <row r="159">
@@ -3538,19 +5442,31 @@
         <v>5.123769999999999</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0001391042578938748</v>
+        <v>0.0001391339596469012</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>9.144157850212711e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>8.711798042059277e-06</v>
+        <v>-7.756151666647433e-06</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>3.97884401361063e-06</v>
       </c>
       <c r="F159" t="n">
-        <v>-7.02618873972128e-06</v>
+        <v>7.242070664908948e-06</v>
+      </c>
+      <c r="G159" t="n">
+        <v>8.711530837444527e-06</v>
+      </c>
+      <c r="H159" t="n">
+        <v>5.428772051738225</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.2460617814924754</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1.357193012934556</v>
       </c>
     </row>
     <row r="160">
@@ -3558,19 +5474,31 @@
         <v>5.12852</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0001294328448685115</v>
+        <v>0.000129259582410683</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>9.403397266098169e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>9.127418263396715e-06</v>
+        <v>-1.080895957133573e-05</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>3.447792152230697e-06</v>
       </c>
       <c r="F160" t="n">
-        <v>-1.069378283026043e-05</v>
+        <v>6.274492269325313e-06</v>
+      </c>
+      <c r="G160" t="n">
+        <v>7.506860074029043e-06</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.6703826140550893</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.9549304920941345</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.1675956535137723</v>
       </c>
     </row>
     <row r="161">
@@ -3578,19 +5506,31 @@
         <v>5.12994</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001265817481638949</v>
+        <v>0.000126413214372375</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>9.74526156295853e-06</v>
       </c>
       <c r="D161" t="n">
-        <v>9.398972187306106e-06</v>
+        <v>1.126265442739785e-06</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>3.617916295307384e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>1.524320537923484e-06</v>
+        <v>6.790645932886574e-06</v>
+      </c>
+      <c r="G161" t="n">
+        <v>8.097092538472342e-06</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1.871742026626823</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.7593339192426637</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.4679355066567057</v>
       </c>
     </row>
     <row r="162">
@@ -3598,19 +5538,31 @@
         <v>5.13381</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001585613173100004</v>
+        <v>0.0001587280995454347</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>6.494368666636521e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>6.406491696524648e-06</v>
+        <v>-1.185529794667597e-05</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>4.055408348024176e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>-1.183820667560802e-05</v>
+        <v>7.454352743824848e-06</v>
+      </c>
+      <c r="G162" t="n">
+        <v>8.822669453400206e-06</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.9782613123892322</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.913074174819825</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.244565328097308</v>
       </c>
     </row>
     <row r="163">
@@ -3618,19 +5570,31 @@
         <v>5.13888</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002762820736991206</v>
+        <v>0.0002762939196107573</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>2.331789772913408e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>2.361188418774375e-05</v>
+        <v>-2.678295524284158e-05</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>6.699316845696365e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>-2.667026434958548e-05</v>
+        <v>1.184426732552214e-05</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.463821534469406e-05</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1.8622748865498</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.7610712755624794</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.4655687216374501</v>
       </c>
     </row>
     <row r="164">
@@ -3638,19 +5602,31 @@
         <v>5.14165</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0003346436652674882</v>
+        <v>0.0003348661844436274</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1.356464106383608e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>1.401812658682082e-05</v>
+        <v>-8.825836015010594e-06</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>7.832183590459986e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>-9.302351411600591e-06</v>
+        <v>1.428950601537585e-05</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.720386530690009e-05</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.4258146683752443</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.9803093429514582</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.1064536670938111</v>
       </c>
     </row>
     <row r="165">
@@ -3658,19 +5634,31 @@
         <v>5.144740000000001</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0003564759785673378</v>
+        <v>0.0003564984043427819</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>2.175377583422763e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>2.194498380586989e-05</v>
+        <v>-8.188702966637927e-06</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>8.282366888916345e-06</v>
       </c>
       <c r="F165" t="n">
-        <v>-8.340840197813384e-06</v>
+        <v>1.501258343145124e-05</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1.83333606178616e-05</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.5257506204372712</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.9709462215693785</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.1314376551093178</v>
       </c>
     </row>
     <row r="166">
@@ -3678,19 +5666,31 @@
         <v>5.14799</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0003624193212844483</v>
+        <v>0.0003623482079790716</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1.66773448792505e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>1.659376505762795e-05</v>
+        <v>-1.049964329201283e-05</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>8.471779372805636e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>-1.044896494466734e-05</v>
+        <v>1.535006971172057e-05</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1.86296511166599e-05</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.5615272252138289</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.9672414352294622</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.1403818063034572</v>
       </c>
     </row>
     <row r="167">
@@ -3698,19 +5698,31 @@
         <v>5.15001</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0003708881786950971</v>
+        <v>0.0003716258431152371</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>3.072738367930353e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>3.169389120909895e-05</v>
+        <v>4.089813445724497e-06</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>8.82984364774151e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>2.515440761766598e-06</v>
+        <v>1.62202619977249e-05</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.987720994202639e-05</v>
+      </c>
+      <c r="H167" t="n">
+        <v>3.224658143525455</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.5209574639308545</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.8061645358813638</v>
       </c>
     </row>
     <row r="168">
@@ -3718,19 +5730,31 @@
         <v>5.150980000000001</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0003772100034098261</v>
+        <v>0.0003773174227116752</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1.612594739192259e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>1.621135691115121e-05</v>
+        <v>-8.677997457160283e-06</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>8.623622853005843e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>-8.582172255677787e-06</v>
+        <v>1.562025095899714e-05</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1.892235378479423e-05</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.4911580003003959</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.9743560205204471</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.122789500075099</v>
       </c>
     </row>
     <row r="169">
@@ -3738,19 +5762,31 @@
         <v>5.15704</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0003624204512817357</v>
+        <v>0.000362774181707773</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1.811740489705732e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>1.879474317167751e-05</v>
+        <v>-7.013500011100174e-06</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>8.24367540278084e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>-7.471650164739149e-06</v>
+        <v>1.495210640274754e-05</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1.828708321453564e-05</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1.006831613828693</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.9087583305829962</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.2517079034571733</v>
       </c>
     </row>
     <row r="170">
@@ -3758,19 +5794,31 @@
         <v>5.15937</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0003340695617201568</v>
+        <v>0.0003342946148933026</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>2.716120687840413e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>2.756001372139663e-05</v>
+        <v>-1.157411928512185e-05</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>7.533768819346125e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>-1.192834653440968e-05</v>
+        <v>1.350550006000603e-05</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1.678697729982682e-05</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1.111401763617682</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.8924589954353471</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.2778504409044204</v>
       </c>
     </row>
     <row r="171">
@@ -3778,19 +5826,31 @@
         <v>5.17005</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0002097351299425496</v>
+        <v>0.0002098598480215547</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>9.298124270950604e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>7.926127225513992e-06</v>
+        <v>4.059548984527105e-06</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>4.991342152100158e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>2.367636253918825e-06</v>
+        <v>9.144693400564659e-06</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1.114333991774513e-05</v>
+      </c>
+      <c r="H171" t="n">
+        <v>7.096063562604654</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.1308979564838321</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1.774015890651163</v>
       </c>
     </row>
     <row r="172">
@@ -3798,19 +5858,31 @@
         <v>5.18984</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001367428508875935</v>
+        <v>0.0001367935798510084</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>6.153627298254377e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>5.376575570980915e-06</v>
+        <v>6.546573006983646e-06</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>3.17523991860403e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>5.096034548259344e-06</v>
+        <v>5.825381926500586e-06</v>
+      </c>
+      <c r="G172" t="n">
+        <v>7.133112262932116e-06</v>
+      </c>
+      <c r="H172" t="n">
+        <v>6.700714169400578</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.1525749765064512</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1.675178542350144</v>
       </c>
     </row>
     <row r="173">
@@ -3818,19 +5890,31 @@
         <v>5.210030000000001</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001255423588227667</v>
+        <v>0.0001255481062307427</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>7.795927086286201e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>7.567970153669271e-06</v>
+        <v>8.583393662540495e-07</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>2.993042705108437e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>4.874086894263946e-07</v>
+        <v>5.470169527801057e-06</v>
+      </c>
+      <c r="G173" t="n">
+        <v>6.673886159295522e-06</v>
+      </c>
+      <c r="H173" t="n">
+        <v>3.012539462791033</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.5557291484622717</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.7531348656977583</v>
       </c>
     </row>
     <row r="174">
@@ -3838,19 +5922,31 @@
         <v>5.23003</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001452784153195483</v>
+        <v>0.0001451948996666279</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1.289007235389175e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>1.293659345174098e-05</v>
+        <v>1.848977945968793e-06</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>3.675348351214444e-06</v>
       </c>
       <c r="F174" t="n">
-        <v>1.696803897486324e-06</v>
+        <v>6.796601906003747e-06</v>
+      </c>
+      <c r="G174" t="n">
+        <v>8.234985585606444e-06</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.9930674564332277</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.9108453614279294</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.2482668641083069</v>
       </c>
     </row>
     <row r="175">
@@ -3858,19 +5954,31 @@
         <v>5.2395</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0002033983029051833</v>
+        <v>0.0002033629357396572</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1.61560407781144e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>1.6199935355546e-05</v>
+        <v>-1.34512416042397e-05</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>4.74000248113727e-06</v>
       </c>
       <c r="F175" t="n">
-        <v>-1.347802025826597e-05</v>
+        <v>8.490445682007452e-06</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1.042470253444522e-05</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.5494999531009341</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.9685066653778018</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.1373749882752335</v>
       </c>
     </row>
     <row r="176">
@@ -3878,19 +5986,31 @@
         <v>5.24306</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0002246206516302177</v>
+        <v>0.0002250078656281502</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>4.955245138187943e-06</v>
       </c>
       <c r="D176" t="n">
-        <v>5.178346892741702e-06</v>
+        <v>7.605270320473572e-06</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>5.617632496602924e-06</v>
       </c>
       <c r="F176" t="n">
-        <v>6.202743822255364e-06</v>
+        <v>1.043824084419136e-05</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1.259826986569525e-05</v>
+      </c>
+      <c r="H176" t="n">
+        <v>4.428136665582378</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.3511538597411061</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.107034166395594</v>
       </c>
     </row>
     <row r="177">
@@ -3898,19 +6018,31 @@
         <v>5.25013</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003413697054212246</v>
+        <v>0.0003418223565192877</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1.550722511926381e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>1.54915576389537e-05</v>
+        <v>-2.543334007606762e-06</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>8.580865562912871e-06</v>
       </c>
       <c r="F177" t="n">
-        <v>-1.926295513708174e-06</v>
+        <v>1.581936772690824e-05</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1.916813609302193e-05</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1.91017528915649</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.7522755335379112</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.4775438222891224</v>
       </c>
     </row>
     <row r="178">
@@ -3918,19 +6050,31 @@
         <v>5.25994</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004603637240551044</v>
+        <v>0.0004606227542224462</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>6.415672066437374e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>6.238063481623983e-05</v>
+        <v>-1.032755129572746e-05</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1.118909247718224e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>-1.382435404312012e-05</v>
+        <v>2.022050124313786e-05</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2.515378460696284e-05</v>
+      </c>
+      <c r="H178" t="n">
+        <v>7.402209478324326</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.1160995568584744</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1.850552369581081</v>
       </c>
     </row>
     <row r="179">
@@ -3938,19 +6082,31 @@
         <v>5.26504</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004804358218127734</v>
+        <v>0.000480921322394668</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>8.388125690551569e-06</v>
       </c>
       <c r="D179" t="n">
-        <v>8.260842955495357e-06</v>
+        <v>-1.181016246398141e-05</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1.222902169715382e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>-1.155370229581377e-05</v>
+        <v>2.257980928535242e-05</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2.681681686720824e-05</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2.068896728528353</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.7230885010752012</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.5172241821320882</v>
       </c>
     </row>
     <row r="180">
@@ -3958,19 +6114,31 @@
         <v>5.26998</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0004576639616741657</v>
+        <v>0.0004581650356769631</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>4.005946791190275e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>4.136736754599485e-05</v>
+        <v>-1.75827345248932e-05</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1.176936521646227e-05</v>
       </c>
       <c r="F180" t="n">
-        <v>-1.816264751243167e-05</v>
+        <v>2.1534356343107e-05</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2.633913483865533e-05</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1.806179544963755</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.7713515746607721</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.4515448862409388</v>
       </c>
     </row>
     <row r="181">
@@ -3978,19 +6146,31 @@
         <v>5.27496</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0004093480987770159</v>
+        <v>0.000409411088449274</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>2.254898831506206e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>2.318275502451287e-05</v>
+        <v>4.527971830765648e-07</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1.083763211834171e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>5.055543986091499e-08</v>
+        <v>2.015282656952999e-05</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2.395986396939573e-05</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.4833457087064804</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.9751018929737614</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.1208364271766201</v>
       </c>
     </row>
     <row r="182">
@@ -3998,19 +6178,31 @@
         <v>5.27502</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0004111384721810029</v>
+        <v>0.0004121030792705593</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>5.681520217087565e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>5.914320900369197e-05</v>
+        <v>-1.73599311774123e-05</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>9.961086466960192e-06</v>
       </c>
       <c r="F182" t="n">
-        <v>-1.878535674901923e-05</v>
+        <v>1.824693582020928e-05</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2.253349984825801e-05</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1.218744392813205</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.8750029391717183</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.3046860982033012</v>
       </c>
     </row>
     <row r="183">
@@ -4018,19 +6210,31 @@
         <v>5.279809999999999</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0003640301370510128</v>
+        <v>0.0003653073238187476</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1.015330987605439e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>9.414215290326545e-06</v>
+        <v>-1.204095277097946e-05</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1.046106443328154e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>-9.433304202461712e-06</v>
+        <v>1.941006012662403e-05</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2.270563098329106e-05</v>
+      </c>
+      <c r="H183" t="n">
+        <v>4.731700540687911</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.3159505204440636</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1.182925135171978</v>
       </c>
     </row>
     <row r="184">
@@ -4038,19 +6242,31 @@
         <v>5.28495</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0003099395851617744</v>
+        <v>0.0003096211811717615</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1.279115445923577e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>1.026450998211885e-05</v>
+        <v>9.42125240731257e-06</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>9.673774947462921e-06</v>
       </c>
       <c r="F184" t="n">
-        <v>1.085177079290462e-05</v>
+        <v>1.811545687287759e-05</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2.167252715416765e-05</v>
+      </c>
+      <c r="H184" t="n">
+        <v>6.898512195941716</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.1413495773754712</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1.724628048985429</v>
       </c>
     </row>
     <row r="185">
@@ -4058,19 +6274,31 @@
         <v>5.29016</v>
       </c>
       <c r="B185" t="n">
-        <v>0.000283280310352355</v>
+        <v>0.0002836794488741865</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1.443627906575935e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>1.283916409718171e-05</v>
+        <v>-1.097150205404295e-05</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>8.125189225116785e-06</v>
       </c>
       <c r="F185" t="n">
-        <v>-8.171707856918039e-06</v>
+        <v>1.482091542487701e-05</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1.739164373579234e-05</v>
+      </c>
+      <c r="H185" t="n">
+        <v>9.373665017600494</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.05240888753971862</v>
+      </c>
+      <c r="J185" t="n">
+        <v>2.343416254400124</v>
       </c>
     </row>
     <row r="186">
@@ -4078,19 +6306,31 @@
         <v>5.29294</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0002875298836438431</v>
+        <v>0.0002879401104195223</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>3.970433801162436e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>4.060937044323883e-05</v>
+        <v>-6.123511411120451e-06</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>8.272888540660509e-06</v>
       </c>
       <c r="F186" t="n">
-        <v>-6.556857506112356e-06</v>
+        <v>1.537061057014632e-05</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1.871611253636126e-05</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1.896545597304291</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.7547795471800045</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.4741363993260728</v>
       </c>
     </row>
     <row r="187">
@@ -4098,19 +6338,31 @@
         <v>5.29767</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0002814514015836498</v>
+        <v>0.0002812082918764282</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>2.795433814566599e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>2.64451525216569e-05</v>
+        <v>-5.624116221183148e-06</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>7.369404917839989e-06</v>
       </c>
       <c r="F187" t="n">
-        <v>-7.483125003440789e-06</v>
+        <v>1.338219137849867e-05</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1.649493736868762e-05</v>
+      </c>
+      <c r="H187" t="n">
+        <v>8.092224204234601</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.0882577263662021</v>
+      </c>
+      <c r="J187" t="n">
+        <v>2.02305605105865</v>
       </c>
     </row>
     <row r="188">
@@ -4118,19 +6370,31 @@
         <v>5.29972</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0002789861656735387</v>
+        <v>0.0002789913701197042</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>3.474046706897582e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>3.366557866808841e-05</v>
+        <v>-2.972377512528042e-05</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>7.593944477523301e-06</v>
       </c>
       <c r="F188" t="n">
-        <v>-2.851794766809302e-05</v>
+        <v>1.389344757536424e-05</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1.677827394450112e-05</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1.85044915820782</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.7632406072497293</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.4626122895519549</v>
       </c>
     </row>
     <row r="189">
@@ -4138,19 +6402,31 @@
         <v>5.30238</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0002628343224373148</v>
+        <v>0.0002626354502740884</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>-6.219056613521938e-08</v>
       </c>
       <c r="D189" t="n">
-        <v>-5.397597179623907e-06</v>
+        <v>2.88015565416621e-05</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>7.354349455566015e-06</v>
       </c>
       <c r="F189" t="n">
-        <v>2.482505502957051e-05</v>
+        <v>1.3612708674559e-05</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1.647462611591452e-05</v>
+      </c>
+      <c r="H189" t="n">
+        <v>18.38331413837475</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.001038386079337261</v>
+      </c>
+      <c r="J189" t="n">
+        <v>4.595828534593687</v>
       </c>
     </row>
     <row r="190">
@@ -4158,19 +6434,31 @@
         <v>5.30823</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0002938714191242781</v>
+        <v>0.0002945385923755391</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1.436269681709436e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>1.32565665304708e-05</v>
+        <v>-3.202386192416697e-06</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>7.287328069711172e-06</v>
       </c>
       <c r="F190" t="n">
-        <v>-5.549521116661555e-06</v>
+        <v>1.317984626072017e-05</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1.631056762686376e-05</v>
+      </c>
+      <c r="H190" t="n">
+        <v>8.909406047320028</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.06340422071376406</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2.227351511830007</v>
       </c>
     </row>
     <row r="191">
@@ -4178,19 +6466,31 @@
         <v>5.312880000000001</v>
       </c>
       <c r="B191" t="n">
-        <v>0.000340969966833276</v>
+        <v>0.0003413252131505258</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>2.617743183737375e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>2.590045121334428e-05</v>
+        <v>5.66642188019851e-07</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>8.458617935491363e-06</v>
       </c>
       <c r="F191" t="n">
-        <v>9.665796556752345e-07</v>
+        <v>1.530854258331167e-05</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1.875921734164356e-05</v>
+      </c>
+      <c r="H191" t="n">
+        <v>3.897338043615436</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.4200778900847826</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.974334510903859</v>
       </c>
     </row>
     <row r="192">
@@ -4198,19 +6498,31 @@
         <v>5.31752</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0003865623021523645</v>
+        <v>0.0003873352567419974</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>6.10455904700668e-06</v>
       </c>
       <c r="D192" t="n">
-        <v>3.684497950188386e-06</v>
+        <v>1.764548268489438e-06</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>9.440126804133253e-06</v>
       </c>
       <c r="F192" t="n">
-        <v>-1.143903901773302e-06</v>
+        <v>1.705272792953162e-05</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2.090361578645211e-05</v>
+      </c>
+      <c r="H192" t="n">
+        <v>9.793124841787948</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.04406044312678903</v>
+      </c>
+      <c r="J192" t="n">
+        <v>2.448281210446987</v>
       </c>
     </row>
     <row r="193">
@@ -4218,19 +6530,31 @@
         <v>5.32281</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004365345328163857</v>
+        <v>0.0004371765650503262</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1.91368925048442e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>1.816133312110528e-05</v>
+        <v>1.211650507595182e-05</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1.034367220648316e-05</v>
       </c>
       <c r="F193" t="n">
-        <v>7.732169371352629e-06</v>
+        <v>1.904675472276437e-05</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2.33388168467705e-05</v>
+      </c>
+      <c r="H193" t="n">
+        <v>6.142101384815615</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.1887844160308682</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1.535525346203904</v>
       </c>
     </row>
     <row r="194">
@@ -4238,19 +6562,31 @@
         <v>5.32768</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0005082537058852176</v>
+        <v>0.0005084402050387626</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>4.030438773582268e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>3.903659171568038e-05</v>
+        <v>1.021491858577085e-05</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1.189777793737795e-05</v>
       </c>
       <c r="F194" t="n">
-        <v>6.580781808488438e-06</v>
+        <v>2.182676488381293e-05</v>
+      </c>
+      <c r="G194" t="n">
+        <v>2.689950443739583e-05</v>
+      </c>
+      <c r="H194" t="n">
+        <v>4.208282110898365</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.3785511747914774</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1.052070527724591</v>
       </c>
     </row>
     <row r="195">
@@ -4258,19 +6594,31 @@
         <v>5.33288</v>
       </c>
       <c r="B195" t="n">
-        <v>0.000575249181549383</v>
+        <v>0.0005752537881205118</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>5.81266751456323e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>5.792681679178331e-05</v>
+        <v>-2.053061135485167e-05</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1.346881870182147e-05</v>
       </c>
       <c r="F195" t="n">
-        <v>-2.07584931495198e-05</v>
+        <v>2.444177825010762e-05</v>
+      </c>
+      <c r="G195" t="n">
+        <v>3.005845529537255e-05</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.9336785045789726</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.919680147692252</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.2334196261447432</v>
       </c>
     </row>
     <row r="196">
@@ -4278,19 +6626,31 @@
         <v>5.33291</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0005500049274999155</v>
+        <v>0.0005501653655814011</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>4.066947860896785e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>3.889780677608245e-05</v>
+        <v>1.854158056624868e-05</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1.261463171763105e-05</v>
       </c>
       <c r="F196" t="n">
-        <v>1.441582977188175e-05</v>
+        <v>2.297459190856399e-05</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2.832114036345887e-05</v>
+      </c>
+      <c r="H196" t="n">
+        <v>4.976787641202487</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.2896875317429068</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1.244196910300622</v>
       </c>
     </row>
     <row r="197">
@@ -4298,19 +6658,31 @@
         <v>5.33747</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0005482211568395677</v>
+        <v>0.0005483262143721019</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>3.870653402900901e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>3.731016560746326e-05</v>
+        <v>7.119446984215358e-06</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1.240711779000638e-05</v>
       </c>
       <c r="F197" t="n">
-        <v>3.159102407126743e-06</v>
+        <v>2.245478559473698e-05</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2.789810997931038e-05</v>
+      </c>
+      <c r="H197" t="n">
+        <v>4.110049259447459</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.3913171294290316</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1.027512314861865</v>
       </c>
     </row>
     <row r="198">
@@ -4318,19 +6690,31 @@
         <v>5.34274</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0005004006168857894</v>
+        <v>0.0005004035995253925</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>4.60421581364429e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>4.625723709055213e-05</v>
+        <v>-1.945941262769828e-05</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>1.135314007137669e-05</v>
       </c>
       <c r="F198" t="n">
-        <v>-1.964050309290827e-05</v>
+        <v>2.050287633340533e-05</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2.530400141663516e-05</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.08795297048435319</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.9990609214607115</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.0219882426210883</v>
       </c>
     </row>
     <row r="199">
@@ -4338,19 +6722,31 @@
         <v>5.34293</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0004908284648491709</v>
+        <v>0.0004909967684430626</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>3.839172852701148e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>3.784209342228043e-05</v>
+        <v>7.601011308091491e-06</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1.102963402287044e-05</v>
       </c>
       <c r="F199" t="n">
-        <v>4.974912218783209e-06</v>
+        <v>1.993282406386374e-05</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2.481080755184484e-05</v>
+      </c>
+      <c r="H199" t="n">
+        <v>3.110951622929131</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.5394326296750473</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.7777379057322829</v>
       </c>
     </row>
     <row r="200">
@@ -4358,19 +6754,31 @@
         <v>5.34694</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0004359405698018502</v>
+        <v>0.0004364559862523</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>4.311499899451956e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>4.389537858148287e-05</v>
+        <v>-2.385403862286892e-05</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>9.835365989743975e-06</v>
       </c>
       <c r="F200" t="n">
-        <v>-2.439619441421626e-05</v>
+        <v>1.761131716758627e-05</v>
+      </c>
+      <c r="G200" t="n">
+        <v>2.186970609705032e-05</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1.113636656602172</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.8921026069006018</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.2784091641505431</v>
       </c>
     </row>
     <row r="201">
@@ -4378,19 +6786,31 @@
         <v>5.34826</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0004183216360951745</v>
+        <v>0.0004186155211255627</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>3.426149825663471e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>3.398874871973364e-05</v>
+        <v>-4.740566187271368e-06</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>9.345455412609477e-06</v>
       </c>
       <c r="F201" t="n">
-        <v>-6.339509046116492e-06</v>
+        <v>1.676894525754089e-05</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2.089954308548751e-05</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2.923600205041985</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.5706910573478877</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.7309000512604962</v>
       </c>
     </row>
     <row r="202">
@@ -4398,19 +6818,31 @@
         <v>5.34858</v>
       </c>
       <c r="B202" t="n">
-        <v>0.000407695849172041</v>
+        <v>0.0004078579866087921</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>3.158876848575949e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>3.179170859893105e-05</v>
+        <v>-1.428509550388101e-05</v>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>9.09005234891918e-06</v>
       </c>
       <c r="F202" t="n">
-        <v>-1.448959400216036e-05</v>
+        <v>1.629156194820387e-05</v>
+      </c>
+      <c r="G202" t="n">
+        <v>2.014384286172468e-05</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.8301058740131846</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.9343669897346245</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.2075264685032961</v>
       </c>
     </row>
     <row r="203">
@@ -4418,19 +6850,31 @@
         <v>5.35205</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0005206161515946419</v>
+        <v>0.0005208276875228143</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>3.64519663237844e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>3.693022524701178e-05</v>
+        <v>-8.231760679035856e-06</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>1.196976052123072e-05</v>
       </c>
       <c r="F203" t="n">
-        <v>-8.836489515085351e-06</v>
+        <v>2.166795373680533e-05</v>
+      </c>
+      <c r="G203" t="n">
+        <v>2.664212283987183e-05</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1.036953755474368</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.904141775672011</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.2592384388685919</v>
       </c>
     </row>
     <row r="204">
@@ -4438,19 +6882,31 @@
         <v>5.3536</v>
       </c>
       <c r="B204" t="n">
-        <v>0.000453822353322619</v>
+        <v>0.0004540872823982046</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>3.059928846185433e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>2.998064852086062e-05</v>
+        <v>8.395220001438633e-06</v>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>1.000796123072449e-05</v>
       </c>
       <c r="F204" t="n">
-        <v>5.986153290563491e-06</v>
+        <v>1.810092326773164e-05</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2.247019899065142e-05</v>
+      </c>
+      <c r="H204" t="n">
+        <v>3.123774256753463</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.5373299280757682</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.7809435641883659</v>
       </c>
     </row>
     <row r="205">
@@ -4458,19 +6914,31 @@
         <v>5.3579</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0004794909175760922</v>
+        <v>0.0004802726122059146</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>2.190448923441356e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>2.334713266526695e-05</v>
+        <v>-5.346567603048478e-06</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>1.122416261166869e-05</v>
       </c>
       <c r="F205" t="n">
-        <v>-6.631043109419118e-06</v>
+        <v>2.052586334274772e-05</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2.504149233747381e-05</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1.765960588232747</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.7787038208954421</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.4414901470581867</v>
       </c>
     </row>
     <row r="206">
@@ -4478,19 +6946,31 @@
         <v>5.35797</v>
       </c>
       <c r="B206" t="n">
-        <v>0.000521857425304011</v>
+        <v>0.0005224570746281767</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>3.560697603289089e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>3.489921263671004e-05</v>
+        <v>1.856401983000092e-05</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>1.167077533779974e-05</v>
       </c>
       <c r="F206" t="n">
-        <v>1.590614173579329e-05</v>
+        <v>2.115849336654147e-05</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2.620587083961377e-05</v>
+      </c>
+      <c r="H206" t="n">
+        <v>4.11136161099346</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.3911444350469784</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1.027840402748365</v>
       </c>
     </row>
     <row r="207">
@@ -4498,19 +6978,31 @@
         <v>5.359830000000001</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0004369341776108421</v>
+        <v>0.0004369572234169936</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>3.285246217318161e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>3.298692059012781e-05</v>
+        <v>-1.148203924907789e-05</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>1.024908609569504e-05</v>
       </c>
       <c r="F207" t="n">
-        <v>-1.16266306838925e-05</v>
+        <v>1.851635305964215e-05</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2.271517221253879e-05</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.8106645958255664</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.9370126351762692</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.2026661489563916</v>
       </c>
     </row>
     <row r="208">
@@ -4518,19 +7010,31 @@
         <v>5.36189</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0004112028563948477</v>
+        <v>0.0004113022033583369</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>2.649442417573431e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>2.666241045761228e-05</v>
+        <v>-3.090163592257768e-06</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>9.703829635954295e-06</v>
       </c>
       <c r="F208" t="n">
-        <v>-3.693894962789569e-06</v>
+        <v>1.766236811312747e-05</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2.160404746457481e-05</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1.479066226473369</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.8303430405231265</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.3697665566183423</v>
       </c>
     </row>
     <row r="209">
@@ -4538,19 +7042,31 @@
         <v>5.36386</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003899970985246936</v>
+        <v>0.0003904624484664802</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>2.674968216233816e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>2.742298998190609e-05</v>
+        <v>-1.803639148784662e-06</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>9.239042109682117e-06</v>
       </c>
       <c r="F209" t="n">
-        <v>-3.154314570670136e-06</v>
+        <v>1.685253146131759e-05</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2.072964151228556e-05</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2.481224645444317</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.6480009375122846</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.6203061613610793</v>
       </c>
     </row>
     <row r="210">
@@ -4558,19 +7074,31 @@
         <v>5.36605</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003666066705246419</v>
+        <v>0.0003666861477546075</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1.657619715274497e-05</v>
       </c>
       <c r="D210" t="n">
-        <v>1.678641109247996e-05</v>
+        <v>1.755604925912408e-06</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>8.778464083709565e-06</v>
       </c>
       <c r="F210" t="n">
-        <v>1.469730827800621e-06</v>
+        <v>1.618974306068978e-05</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1.949604259460998e-05</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.729525724455603</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.947638502441704</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.1823814311139008</v>
       </c>
     </row>
     <row r="211">
@@ -4578,19 +7106,31 @@
         <v>5.368040000000001</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0003401173077484227</v>
+        <v>0.0003402404330485959</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>2.340625370145192e-05</v>
       </c>
       <c r="D211" t="n">
-        <v>2.350650227342629e-05</v>
+        <v>-1.203377286023978e-05</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>7.778717368888731e-06</v>
       </c>
       <c r="F211" t="n">
-        <v>-1.221514038023645e-05</v>
+        <v>1.406943962625605e-05</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1.73255851836118e-05</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.7480603522802067</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.9452725122345452</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.1870150880700517</v>
       </c>
     </row>
     <row r="212">
@@ -4598,19 +7138,31 @@
         <v>5.36827</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0003653908452413284</v>
+        <v>0.0003655350782827957</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>2.438353547426172e-05</v>
       </c>
       <c r="D212" t="n">
-        <v>2.380317132271277e-05</v>
+        <v>2.236682214731454e-06</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>8.293699665336776e-06</v>
       </c>
       <c r="F212" t="n">
-        <v>3.661313700171327e-07</v>
+        <v>1.495955028259692e-05</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1.857758056653115e-05</v>
+      </c>
+      <c r="H212" t="n">
+        <v>3.502760267001464</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.4774587639608064</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.8756900667503661</v>
       </c>
     </row>
     <row r="213">
@@ -4618,19 +7170,31 @@
         <v>5.36965</v>
       </c>
       <c r="B213" t="n">
-        <v>0.000345499919219191</v>
+        <v>0.0003456317235534005</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1.917316483169369e-05</v>
       </c>
       <c r="D213" t="n">
-        <v>1.940646845743911e-05</v>
+        <v>-1.698262118312178e-05</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>8.188305729116887e-06</v>
       </c>
       <c r="F213" t="n">
-        <v>-1.680499295903938e-05</v>
+        <v>1.471343441205327e-05</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1.797242710579378e-05</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.8635019870130338</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.9297376519538355</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.2158754967532585</v>
       </c>
     </row>
     <row r="214">
@@ -4638,19 +7202,31 @@
         <v>5.371490000000001</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0004112273929460208</v>
+        <v>0.0004115155583106197</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>2.407979255220419e-05</v>
       </c>
       <c r="D214" t="n">
-        <v>2.284464877133742e-05</v>
+        <v>7.690385722658e-06</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>9.26918018948313e-06</v>
       </c>
       <c r="F214" t="n">
-        <v>4.914870698239365e-06</v>
+        <v>1.67717892138874e-05</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2.072259483708465e-05</v>
+      </c>
+      <c r="H214" t="n">
+        <v>4.797133967741131</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.3087531723032524</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1.199283491935283</v>
       </c>
     </row>
     <row r="215">
@@ -4658,19 +7234,31 @@
         <v>5.373419999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002853327239850659</v>
+        <v>0.0002855085741792334</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>2.663266200980945e-05</v>
       </c>
       <c r="D215" t="n">
-        <v>2.647963719489088e-05</v>
+        <v>1.700410268557612e-07</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>6.424718055115619e-06</v>
       </c>
       <c r="F215" t="n">
-        <v>-1.621800281780997e-06</v>
+        <v>1.152429329167388e-05</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1.437304263136171e-05</v>
+      </c>
+      <c r="H215" t="n">
+        <v>4.072185669069285</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.3963247224513428</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1.018046417267321</v>
       </c>
     </row>
     <row r="216">
@@ -4678,19 +7266,31 @@
         <v>5.3748</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0001778109640480942</v>
+        <v>0.0001778644989133921</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1.621618866242834e-05</v>
       </c>
       <c r="D216" t="n">
-        <v>1.590235464569229e-05</v>
+        <v>-9.897950152906092e-06</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>4.120757062673105e-06</v>
       </c>
       <c r="F216" t="n">
-        <v>-1.063432726421124e-05</v>
+        <v>7.348068105793272e-06</v>
+      </c>
+      <c r="G216" t="n">
+        <v>9.197631505492025e-06</v>
+      </c>
+      <c r="H216" t="n">
+        <v>3.609865700533863</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.4613707861680433</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.9024664251334658</v>
       </c>
     </row>
     <row r="217">
@@ -4698,19 +7298,31 @@
         <v>5.38009</v>
       </c>
       <c r="B217" t="n">
-        <v>7.307299702860557e-05</v>
+        <v>7.306983276644436e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>5.330787621388863e-06</v>
       </c>
       <c r="D217" t="n">
-        <v>4.970910532539594e-06</v>
+        <v>1.184722325260065e-07</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>1.82223865580358e-06</v>
       </c>
       <c r="F217" t="n">
-        <v>-3.11480943551599e-07</v>
+        <v>3.344072496580185e-06</v>
+      </c>
+      <c r="G217" t="n">
+        <v>4.086073415356561e-06</v>
+      </c>
+      <c r="H217" t="n">
+        <v>5.823363810717642</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.2127336279219179</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1.45584095267941</v>
       </c>
     </row>
     <row r="218">
@@ -4718,19 +7330,31 @@
         <v>5.382919999999999</v>
       </c>
       <c r="B218" t="n">
-        <v>4.524146618092841e-05</v>
+        <v>4.531852329987476e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1.314396384157788e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>1.36048271087223e-06</v>
+        <v>2.298564699264818e-06</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>1.162691605750973e-06</v>
       </c>
       <c r="F218" t="n">
-        <v>2.193119094080138e-06</v>
+        <v>2.177323809797367e-06</v>
+      </c>
+      <c r="G218" t="n">
+        <v>2.585262378346136e-06</v>
+      </c>
+      <c r="H218" t="n">
+        <v>3.497464655032265</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.4782639539754708</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.8743661637580662</v>
       </c>
     </row>
     <row r="219">
@@ -4738,19 +7362,31 @@
         <v>5.38334</v>
       </c>
       <c r="B219" t="n">
-        <v>6.421448133129445e-05</v>
+        <v>6.418590087740392e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>4.172058347691635e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>3.990809653408324e-06</v>
+        <v>5.129286576964509e-06</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>1.539163216356746e-06</v>
       </c>
       <c r="F219" t="n">
-        <v>5.040666181873786e-06</v>
+        <v>2.849709661972956e-06</v>
+      </c>
+      <c r="G219" t="n">
+        <v>3.440258324759654e-06</v>
+      </c>
+      <c r="H219" t="n">
+        <v>3.105085806662628</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.5403961355254578</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.776271451665657</v>
       </c>
     </row>
     <row r="220">
@@ -4758,19 +7394,31 @@
         <v>5.383859999999999</v>
       </c>
       <c r="B220" t="n">
-        <v>4.010495696402273e-05</v>
+        <v>4.011168303657466e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>2.339233568969537e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>2.29306463328823e-06</v>
+        <v>-4.173987879888165e-08</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>1.003759994562765e-06</v>
       </c>
       <c r="F220" t="n">
-        <v>3.254529847451803e-08</v>
+        <v>1.851675023762701e-06</v>
+      </c>
+      <c r="G220" t="n">
+        <v>2.207896278655758e-06</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1.145139286598702</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.8870458149563775</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.2862848216496754</v>
       </c>
     </row>
     <row r="221">
@@ -4778,19 +7426,31 @@
         <v>5.38596</v>
       </c>
       <c r="B221" t="n">
-        <v>3.243377622990645e-05</v>
+        <v>3.253937951257727e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>2.33410093756958e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>2.58680214077589e-06</v>
+        <v>1.517299911314498e-06</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>8.228327173093554e-07</v>
       </c>
       <c r="F221" t="n">
-        <v>1.281345587292239e-06</v>
+        <v>1.531538889584623e-06</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1.861197834512949e-06</v>
+      </c>
+      <c r="H221" t="n">
+        <v>3.486252260476462</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0.4799717952261429</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.8715630651191155</v>
       </c>
     </row>
     <row r="222">
@@ -4798,19 +7458,31 @@
         <v>5.38986</v>
       </c>
       <c r="B222" t="n">
-        <v>2.762602223294131e-05</v>
+        <v>2.773249719516591e-05</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1.899247804372061e-06</v>
       </c>
       <c r="D222" t="n">
-        <v>2.021660039825349e-06</v>
+        <v>1.722462514634971e-06</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>6.770722152319065e-07</v>
       </c>
       <c r="F222" t="n">
-        <v>1.686582096359053e-06</v>
+        <v>1.288614920563959e-06</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1.551397221964836e-06</v>
+      </c>
+      <c r="H222" t="n">
+        <v>2.724833784648502</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0.6048760666733484</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.6812084461621255</v>
       </c>
     </row>
     <row r="223">
@@ -4818,19 +7490,31 @@
         <v>5.39308</v>
       </c>
       <c r="B223" t="n">
-        <v>2.762690738212835e-05</v>
+        <v>2.802278264587918e-05</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>2.159750984689827e-06</v>
       </c>
       <c r="D223" t="n">
-        <v>2.815164707440824e-06</v>
+        <v>2.263218908928753e-06</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>6.982904779564518e-07</v>
       </c>
       <c r="F223" t="n">
-        <v>1.670707970099903e-06</v>
+        <v>1.360089234894744e-06</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1.642409613977691e-06</v>
+      </c>
+      <c r="H223" t="n">
+        <v>12.88634544564771</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.01184469105956543</v>
+      </c>
+      <c r="J223" t="n">
+        <v>3.221586361411927</v>
       </c>
     </row>
     <row r="224">
@@ -4838,19 +7522,31 @@
         <v>5.40341</v>
       </c>
       <c r="B224" t="n">
-        <v>4.071705381248864e-05</v>
+        <v>4.070447864468124e-05</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>5.064685351400083e-06</v>
       </c>
       <c r="D224" t="n">
-        <v>4.965541474385096e-06</v>
+        <v>1.849388020672263e-06</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>9.688728885865174e-07</v>
       </c>
       <c r="F224" t="n">
-        <v>1.425333948651518e-06</v>
+        <v>1.784615101661929e-06</v>
+      </c>
+      <c r="G224" t="n">
+        <v>2.20548171309181e-06</v>
+      </c>
+      <c r="H224" t="n">
+        <v>5.885371372701094</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.2078739174926958</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1.471342843175274</v>
       </c>
     </row>
     <row r="225">
@@ -4858,19 +7554,31 @@
         <v>5.41408</v>
       </c>
       <c r="B225" t="n">
-        <v>7.575226881237484e-05</v>
+        <v>7.574182510797006e-05</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>5.284457949863725e-06</v>
       </c>
       <c r="D225" t="n">
-        <v>5.180266983829207e-06</v>
+        <v>3.408625828898787e-06</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>1.734252504629526e-06</v>
       </c>
       <c r="F225" t="n">
-        <v>3.276939709004302e-06</v>
+        <v>3.192944234935578e-06</v>
+      </c>
+      <c r="G225" t="n">
+        <v>3.911861736608092e-06</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1.544217965881725</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0.8187810002400095</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.3860544914704312</v>
       </c>
     </row>
     <row r="226">
@@ -4878,19 +7586,31 @@
         <v>5.42436</v>
       </c>
       <c r="B226" t="n">
-        <v>8.47647729143057e-05</v>
+        <v>8.477073942835932e-05</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>5.411115005084469e-06</v>
       </c>
       <c r="D226" t="n">
-        <v>5.250299161318756e-06</v>
+        <v>5.431726699713544e-06</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>1.94242442231877e-06</v>
       </c>
       <c r="F226" t="n">
-        <v>4.858846374213464e-06</v>
+        <v>3.575781659589821e-06</v>
+      </c>
+      <c r="G226" t="n">
+        <v>4.394236287441592e-06</v>
+      </c>
+      <c r="H226" t="n">
+        <v>3.38645267322493</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.4953520881627961</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.8466131683062325</v>
       </c>
     </row>
     <row r="227">
@@ -4898,19 +7618,31 @@
         <v>5.43541</v>
       </c>
       <c r="B227" t="n">
-        <v>7.472023817264616e-05</v>
+        <v>7.472288651521213e-05</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>6.382437457895498e-06</v>
       </c>
       <c r="D227" t="n">
-        <v>6.134803761879471e-06</v>
+        <v>2.402613660971602e-06</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>1.687481593651344e-06</v>
       </c>
       <c r="F227" t="n">
-        <v>1.697281685022184e-06</v>
+        <v>3.078950547772481e-06</v>
+      </c>
+      <c r="G227" t="n">
+        <v>3.832628448406995e-06</v>
+      </c>
+      <c r="H227" t="n">
+        <v>4.493448690921231</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.3433250025666936</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1.123362172730308</v>
       </c>
     </row>
     <row r="228">
@@ -4918,19 +7650,31 @@
         <v>5.43926</v>
       </c>
       <c r="B228" t="n">
-        <v>6.648659284919007e-05</v>
+        <v>6.646966576803413e-05</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>6.239456137905122e-06</v>
       </c>
       <c r="D228" t="n">
-        <v>6.172794110319735e-06</v>
+        <v>1.435388562391087e-06</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>1.536494275737376e-06</v>
       </c>
       <c r="F228" t="n">
-        <v>1.260401070485365e-06</v>
+        <v>2.824456954727174e-06</v>
+      </c>
+      <c r="G228" t="n">
+        <v>3.479376309275086e-06</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1.601102432193436</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.8085939798874768</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.4002756080483589</v>
       </c>
     </row>
     <row r="229">
@@ -4938,19 +7682,31 @@
         <v>5.44082</v>
       </c>
       <c r="B229" t="n">
-        <v>6.851662324559626e-05</v>
+        <v>6.848573980519988e-05</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1.642146324463839e-06</v>
       </c>
       <c r="D229" t="n">
-        <v>1.508617163074574e-06</v>
+        <v>6.457478228882353e-06</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>1.644559992698047e-06</v>
       </c>
       <c r="F229" t="n">
-        <v>6.325471645097019e-06</v>
+        <v>3.068715125088734e-06</v>
+      </c>
+      <c r="G229" t="n">
+        <v>3.673134669300715e-06</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1.805166090223732</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.7715370501610461</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.4512915225559329</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/CSV/analytically/p1/a4/a4Fit.xlsx
+++ b/legendre_out/CSV/analytically/p1/a4/a4Fit.xlsx
@@ -439,7 +439,7 @@
         <v>133.4988503375235</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.950220670345042e-28</v>
       </c>
       <c r="J2" t="n">
         <v>33.37471258438087</v>
@@ -471,7 +471,7 @@
         <v>93.03530293894833</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.981917498041629e-19</v>
       </c>
       <c r="J3" t="n">
         <v>23.25882573473708</v>
@@ -503,7 +503,7 @@
         <v>105.8557570776122</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5.565801938657289e-22</v>
       </c>
       <c r="J4" t="n">
         <v>26.46393926940306</v>
@@ -535,7 +535,7 @@
         <v>82.58240504643078</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4.939791599285877e-17</v>
       </c>
       <c r="J5" t="n">
         <v>20.64560126160769</v>
@@ -567,7 +567,7 @@
         <v>80.28567704524598</v>
       </c>
       <c r="I6" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.515238487080109e-16</v>
       </c>
       <c r="J6" t="n">
         <v>20.07141926131149</v>
@@ -599,7 +599,7 @@
         <v>111.8558580353155</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.925057638058118e-23</v>
       </c>
       <c r="J7" t="n">
         <v>27.96396450882888</v>
@@ -631,7 +631,7 @@
         <v>78.87157070731635</v>
       </c>
       <c r="I8" t="n">
-        <v>3.33066907387547e-16</v>
+        <v>3.020104106749358e-16</v>
       </c>
       <c r="J8" t="n">
         <v>19.71789267682909</v>
@@ -663,7 +663,7 @@
         <v>80.37646607665675</v>
       </c>
       <c r="I9" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.449590436971515e-16</v>
       </c>
       <c r="J9" t="n">
         <v>20.09411651916419</v>
@@ -695,7 +695,7 @@
         <v>103.2514474185272</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.997244114780731e-21</v>
       </c>
       <c r="J10" t="n">
         <v>25.8128618546318</v>
@@ -727,7 +727,7 @@
         <v>100.8850467467785</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.374009541307788e-21</v>
       </c>
       <c r="J11" t="n">
         <v>25.22126168669463</v>
@@ -759,7 +759,7 @@
         <v>72.31744689507639</v>
       </c>
       <c r="I12" t="n">
-        <v>7.327471962526033e-15</v>
+        <v>7.354052397319145e-15</v>
       </c>
       <c r="J12" t="n">
         <v>18.0793617237691</v>
@@ -791,7 +791,7 @@
         <v>108.1917730880447</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.768374142423759e-22</v>
       </c>
       <c r="J13" t="n">
         <v>27.04794327201119</v>
@@ -823,7 +823,7 @@
         <v>5.459000764523791</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2433569208143982</v>
+        <v>0.2433569208143981</v>
       </c>
       <c r="J14" t="n">
         <v>1.364750191130948</v>
@@ -855,7 +855,7 @@
         <v>10.56740277047589</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03188109156541996</v>
+        <v>0.03188109156541998</v>
       </c>
       <c r="J15" t="n">
         <v>2.641850692618972</v>
@@ -887,7 +887,7 @@
         <v>72.44084594205306</v>
       </c>
       <c r="I16" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>6.92550545369376e-15</v>
       </c>
       <c r="J16" t="n">
         <v>18.11021148551326</v>
@@ -919,7 +919,7 @@
         <v>18.31760036407703</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001069611437289564</v>
+        <v>0.001069611437289533</v>
       </c>
       <c r="J17" t="n">
         <v>4.579400091019258</v>
@@ -951,7 +951,7 @@
         <v>15.23136967240346</v>
       </c>
       <c r="I18" t="n">
-        <v>0.004244630630190649</v>
+        <v>0.004244630630190604</v>
       </c>
       <c r="J18" t="n">
         <v>3.807842418100865</v>
@@ -983,7 +983,7 @@
         <v>58.54167711518667</v>
       </c>
       <c r="I19" t="n">
-        <v>5.872968777964616e-12</v>
+        <v>5.873010612762319e-12</v>
       </c>
       <c r="J19" t="n">
         <v>14.63541927879667</v>
@@ -1015,7 +1015,7 @@
         <v>45.29393887942705</v>
       </c>
       <c r="I20" t="n">
-        <v>3.453994423807671e-09</v>
+        <v>3.453994411955611e-09</v>
       </c>
       <c r="J20" t="n">
         <v>11.32348471985676</v>
@@ -1047,7 +1047,7 @@
         <v>43.98229990710004</v>
       </c>
       <c r="I21" t="n">
-        <v>6.470317948092941e-09</v>
+        <v>6.470317892728407e-09</v>
       </c>
       <c r="J21" t="n">
         <v>10.99557497677501</v>
@@ -1079,7 +1079,7 @@
         <v>50.41388071475815</v>
       </c>
       <c r="I22" t="n">
-        <v>2.959247291656197e-10</v>
+        <v>2.959247009778788e-10</v>
       </c>
       <c r="J22" t="n">
         <v>12.60347017868954</v>
@@ -1111,7 +1111,7 @@
         <v>13.1169510750605</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01071826464957293</v>
+        <v>0.01071826464957294</v>
       </c>
       <c r="J23" t="n">
         <v>3.279237768765126</v>
@@ -1143,7 +1143,7 @@
         <v>22.09674939589878</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001917256858715577</v>
+        <v>0.0001917256858715885</v>
       </c>
       <c r="J24" t="n">
         <v>5.524187348974695</v>
@@ -1175,7 +1175,7 @@
         <v>13.22110084064553</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01024449365117586</v>
+        <v>0.01024449365117585</v>
       </c>
       <c r="J25" t="n">
         <v>3.305275210161382</v>
@@ -1207,7 +1207,7 @@
         <v>27.17429592115101</v>
       </c>
       <c r="I26" t="n">
-        <v>1.832934746193171e-05</v>
+        <v>1.832934746191975e-05</v>
       </c>
       <c r="J26" t="n">
         <v>6.793573980287753</v>
@@ -1239,7 +1239,7 @@
         <v>11.96871349997278</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01758544246778215</v>
+        <v>0.0175854424677822</v>
       </c>
       <c r="J27" t="n">
         <v>2.992178374993195</v>
@@ -1303,7 +1303,7 @@
         <v>8.067540869095026</v>
       </c>
       <c r="I29" t="n">
-        <v>0.08913518386019403</v>
+        <v>0.08913518386019405</v>
       </c>
       <c r="J29" t="n">
         <v>2.016885217273757</v>
@@ -1335,7 +1335,7 @@
         <v>35.25155585971191</v>
       </c>
       <c r="I30" t="n">
-        <v>4.124167793939648e-07</v>
+        <v>4.124167794073325e-07</v>
       </c>
       <c r="J30" t="n">
         <v>8.812888964927977</v>
@@ -1367,7 +1367,7 @@
         <v>85.45913451060569</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.21215988242674e-17</v>
       </c>
       <c r="J31" t="n">
         <v>21.36478362765142</v>
@@ -1399,7 +1399,7 @@
         <v>48.23976507081999</v>
       </c>
       <c r="I32" t="n">
-        <v>8.411737972835454e-10</v>
+        <v>8.411737567703232e-10</v>
       </c>
       <c r="J32" t="n">
         <v>12.059941267705</v>
@@ -1463,7 +1463,7 @@
         <v>10.05490000653224</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03951298341633835</v>
+        <v>0.03951298341633839</v>
       </c>
       <c r="J34" t="n">
         <v>2.51372500163306</v>
@@ -1527,7 +1527,7 @@
         <v>11.92192476380006</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01794139540056283</v>
+        <v>0.01794139540056287</v>
       </c>
       <c r="J36" t="n">
         <v>2.980481190950015</v>
@@ -1559,7 +1559,7 @@
         <v>8.384764107123681</v>
       </c>
       <c r="I37" t="n">
-        <v>0.07845818338800636</v>
+        <v>0.07845818338800634</v>
       </c>
       <c r="J37" t="n">
         <v>2.09619102678092</v>
@@ -1591,7 +1591,7 @@
         <v>8.672800171805678</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06981902083878933</v>
+        <v>0.06981902083878934</v>
       </c>
       <c r="J38" t="n">
         <v>2.168200042951419</v>
@@ -1623,7 +1623,7 @@
         <v>9.46749274244689</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05041950185527155</v>
+        <v>0.05041950185527159</v>
       </c>
       <c r="J39" t="n">
         <v>2.366873185611722</v>
@@ -1655,7 +1655,7 @@
         <v>36.80016995744013</v>
       </c>
       <c r="I40" t="n">
-        <v>1.980378758759116e-07</v>
+        <v>1.980378758619209e-07</v>
       </c>
       <c r="J40" t="n">
         <v>9.200042489360031</v>
@@ -1687,7 +1687,7 @@
         <v>13.09042048815848</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01084233080799879</v>
+        <v>0.01084233080799876</v>
       </c>
       <c r="J41" t="n">
         <v>3.27260512203962</v>
@@ -1751,7 +1751,7 @@
         <v>18.2016769232502</v>
       </c>
       <c r="I43" t="n">
-        <v>0.001126972973402918</v>
+        <v>0.001126972973402864</v>
       </c>
       <c r="J43" t="n">
         <v>4.550419230812551</v>
@@ -1975,7 +1975,7 @@
         <v>9.375517063558918</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05236890434162933</v>
+        <v>0.05236890434162929</v>
       </c>
       <c r="J50" t="n">
         <v>2.34387926588973</v>
@@ -2007,7 +2007,7 @@
         <v>10.74044848366593</v>
       </c>
       <c r="I51" t="n">
-        <v>0.02964121255230534</v>
+        <v>0.02964121255230535</v>
       </c>
       <c r="J51" t="n">
         <v>2.685112120916481</v>
@@ -2327,7 +2327,7 @@
         <v>6.544680231804506</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1619968477507425</v>
+        <v>0.1619968477507426</v>
       </c>
       <c r="J61" t="n">
         <v>1.636170057951126</v>
@@ -2487,7 +2487,7 @@
         <v>10.00146980993081</v>
       </c>
       <c r="I66" t="n">
-        <v>0.04040293051777688</v>
+        <v>0.04040293051777692</v>
       </c>
       <c r="J66" t="n">
         <v>2.500367452482701</v>
@@ -2551,7 +2551,7 @@
         <v>5.296308005855636</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2582227444654781</v>
+        <v>0.2582227444654782</v>
       </c>
       <c r="J68" t="n">
         <v>1.324077001463909</v>
@@ -2615,7 +2615,7 @@
         <v>13.86115887326582</v>
       </c>
       <c r="I70" t="n">
-        <v>0.007751620701364481</v>
+        <v>0.007751620701364509</v>
       </c>
       <c r="J70" t="n">
         <v>3.465289718316455</v>
@@ -2679,7 +2679,7 @@
         <v>13.72829025482064</v>
       </c>
       <c r="I72" t="n">
-        <v>0.008214689786201768</v>
+        <v>0.008214689786201787</v>
       </c>
       <c r="J72" t="n">
         <v>3.432072563705159</v>
@@ -2743,7 +2743,7 @@
         <v>4.724639296451419</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3167354041254684</v>
+        <v>0.3167354041254685</v>
       </c>
       <c r="J74" t="n">
         <v>1.181159824112855</v>
@@ -2935,7 +2935,7 @@
         <v>11.14683712886847</v>
       </c>
       <c r="I80" t="n">
-        <v>0.02496240120910742</v>
+        <v>0.02496240120910748</v>
       </c>
       <c r="J80" t="n">
         <v>2.786709282217117</v>
@@ -2967,7 +2967,7 @@
         <v>9.098888188007221</v>
       </c>
       <c r="I81" t="n">
-        <v>0.05867471852147499</v>
+        <v>0.05867471852147502</v>
       </c>
       <c r="J81" t="n">
         <v>2.274722047001805</v>
@@ -3223,7 +3223,7 @@
         <v>4.94596542994675</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2928868511213309</v>
+        <v>0.292886851121331</v>
       </c>
       <c r="J89" t="n">
         <v>1.236491357486688</v>
@@ -3255,7 +3255,7 @@
         <v>7.866526757876131</v>
       </c>
       <c r="I90" t="n">
-        <v>0.09659168028549459</v>
+        <v>0.09659168028549461</v>
       </c>
       <c r="J90" t="n">
         <v>1.966631689469033</v>
@@ -3351,7 +3351,7 @@
         <v>5.911964331774691</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2058200037705595</v>
+        <v>0.2058200037705596</v>
       </c>
       <c r="J93" t="n">
         <v>1.477991082943673</v>
@@ -5239,7 +5239,7 @@
         <v>8.088834537595417</v>
       </c>
       <c r="I152" t="n">
-        <v>0.08837774200253878</v>
+        <v>0.08837774200253874</v>
       </c>
       <c r="J152" t="n">
         <v>2.022208634398854</v>
@@ -5303,7 +5303,7 @@
         <v>4.234814377399141</v>
       </c>
       <c r="I154" t="n">
-        <v>0.3751589179290802</v>
+        <v>0.3751589179290801</v>
       </c>
       <c r="J154" t="n">
         <v>1.058703594349785</v>
@@ -5335,7 +5335,7 @@
         <v>7.547204790148179</v>
       </c>
       <c r="I155" t="n">
-        <v>0.1096456851384354</v>
+        <v>0.1096456851384355</v>
       </c>
       <c r="J155" t="n">
         <v>1.886801197537045</v>
@@ -5431,7 +5431,7 @@
         <v>5.866853162055027</v>
       </c>
       <c r="I158" t="n">
-        <v>0.209314864609049</v>
+        <v>0.2093148646090491</v>
       </c>
       <c r="J158" t="n">
         <v>1.466713290513757</v>
@@ -5463,7 +5463,7 @@
         <v>5.428772051738225</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2460617814924754</v>
+        <v>0.2460617814924753</v>
       </c>
       <c r="J159" t="n">
         <v>1.357193012934556</v>
@@ -6295,7 +6295,7 @@
         <v>9.373665017600494</v>
       </c>
       <c r="I185" t="n">
-        <v>0.05240888753971862</v>
+        <v>0.05240888753971864</v>
       </c>
       <c r="J185" t="n">
         <v>2.343416254400124</v>
@@ -6359,7 +6359,7 @@
         <v>8.092224204234601</v>
       </c>
       <c r="I187" t="n">
-        <v>0.0882577263662021</v>
+        <v>0.08825772636620216</v>
       </c>
       <c r="J187" t="n">
         <v>2.02305605105865</v>
@@ -6423,7 +6423,7 @@
         <v>18.38331413837475</v>
       </c>
       <c r="I189" t="n">
-        <v>0.001038386079337261</v>
+        <v>0.001038386079337234</v>
       </c>
       <c r="J189" t="n">
         <v>4.595828534593687</v>
@@ -6519,7 +6519,7 @@
         <v>9.793124841787948</v>
       </c>
       <c r="I192" t="n">
-        <v>0.04406044312678903</v>
+        <v>0.04406044312678899</v>
       </c>
       <c r="J192" t="n">
         <v>2.448281210446987</v>
@@ -6647,7 +6647,7 @@
         <v>4.976787641202487</v>
       </c>
       <c r="I196" t="n">
-        <v>0.2896875317429068</v>
+        <v>0.2896875317429069</v>
       </c>
       <c r="J196" t="n">
         <v>1.244196910300622</v>
@@ -6679,7 +6679,7 @@
         <v>4.110049259447459</v>
       </c>
       <c r="I197" t="n">
-        <v>0.3913171294290316</v>
+        <v>0.3913171294290317</v>
       </c>
       <c r="J197" t="n">
         <v>1.027512314861865</v>
@@ -7223,7 +7223,7 @@
         <v>4.797133967741131</v>
       </c>
       <c r="I214" t="n">
-        <v>0.3087531723032524</v>
+        <v>0.3087531723032523</v>
       </c>
       <c r="J214" t="n">
         <v>1.199283491935283</v>
@@ -7511,7 +7511,7 @@
         <v>12.88634544564771</v>
       </c>
       <c r="I223" t="n">
-        <v>0.01184469105956543</v>
+        <v>0.01184469105956538</v>
       </c>
       <c r="J223" t="n">
         <v>3.221586361411927</v>
@@ -7639,7 +7639,7 @@
         <v>4.493448690921231</v>
       </c>
       <c r="I227" t="n">
-        <v>0.3433250025666936</v>
+        <v>0.3433250025666937</v>
       </c>
       <c r="J227" t="n">
         <v>1.123362172730308</v>
